--- a/distance_matrix.xlsx
+++ b/distance_matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF2E154-BA63-4AE8-948E-35513C428164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D240838-B942-41FD-B392-F1801BFD3559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{C86EF04E-7E85-49AA-8CE9-EDAC71A9B2B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C86EF04E-7E85-49AA-8CE9-EDAC71A9B2B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>{('Knappskog', 'Kolltveit'): '7 mins', ('Knappskog', 'Kårtveit'): '8 mins', ('Knappskog', 'Telavåg'): '29 mins', ('Knappskog', 'Straume'): '11 mins', ('Knappskog', 'Knarrevik'): '12 mins', ('Knappskog', 'Bildøyna'): '8 mins', ('Knappskog', 'Spjeld'): '2 mins', ('Knappskog', 'Foldnes'): '14 mins', ('Knappskog', 'Brattholmen'): '15 mins', ('Knappskog', 'Blomøy'): '22 mins', ('Knappskog', 'Hellesøy'): '41 mins', ('Knappskog', 'Vågo'): '15 mins', ('Knappskog', 'Arefjord'): '13 mins', ('Knappskog', 'Ebbesvika'): '17 mins', ('Knappskog', 'Landro'): '10 mins', ('Knappskog', 'Hjelteryggen'): '13 mins', ('Knappskog', 'Skogsvåg'): '20 mins', ('Knappskog', 'Kleppe'): '32 mins', ('Knappskog', 'Solsvik'): '11 mins', ('Knappskog', 'Rongøy'): '17 mins', ('Knappskog', 'Hammersland'): '20 mins', ('Knappskog', 'Vorland'): '25 mins', ('Knappskog', 'Tofterøy'): '31 mins', ('Knappskog', 'Bergenhus'): '28 mins', ('Knappskog', 'Laksevåg'): '19 mins', ('Knappskog', 'Ytrebygda'): '26 mins', ('Knappskog', 'Årstad'): '28 mins', ('Kolltveit', 'Knappskog'): '6 mins', ('Kolltveit', 'Kårtveit'): '13 mins', ('Kolltveit', 'Telavåg'): '26 mins', ('Kolltveit', 'Straume'): '7 mins', ('Kolltveit', 'Knarrevik'): '8 mins', ('Kolltveit', 'Bildøyna'): '4 mins', ('Kolltveit', 'Spjeld'): '7 mins', ('Kolltveit', 'Foldnes'): '10 mins', ('Kolltveit', 'Brattholmen'): '11 mins', ('Kolltveit', 'Blomøy'): '27 mins', ('Kolltveit', 'Hellesøy'): '46 mins', ('Kolltveit', 'Vågo'): '12 mins', ('Kolltveit', 'Arefjord'): '10 mins', ('Kolltveit', 'Ebbesvika'): '13 mins', ('Kolltveit', 'Landro'): '15 mins', ('Kolltveit', 'Hjelteryggen'): '10 mins', ('Kolltveit', 'Skogsvåg'): '17 mins', ('Kolltveit', 'Kleppe'): '28 mins', ('Kolltveit', 'Solsvik'): '16 mins', ('Kolltveit', 'Rongøy'): '22 mins', ('Kolltveit', 'Hammersland'): '17 mins', ('Kolltveit', 'Vorland'): '22 mins', ('Kolltveit', 'Tofterøy'): '28 mins', ('Kolltveit', 'Bergenhus'): '25 mins', ('Kolltveit', 'Laksevåg'): '15 mins', ('Kolltveit', 'Ytrebygda'): '22 mins', ('Kolltveit', 'Årstad'): '25 mins', ('Kårtveit', 'Knappskog'): '8 mins', ('Kårtveit', 'Kolltveit'): '13 mins', ('Kårtveit', 'Telavåg'): '35 mins', ('Kårtveit', 'Straume'): '17 mins', ('Kårtveit', 'Knarrevik'): '17 mins', ('Kårtveit', 'Bildøyna'): '14 mins', ('Kårtveit', 'Spjeld'): '6 mins', ('Kårtveit', 'Foldnes'): '19 mins', ('Kårtveit', 'Brattholmen'): '20 mins', ('Kårtveit', 'Blomøy'): '19 mins', ('Kårtveit', 'Hellesøy'): '38 mins', ('Kårtveit', 'Vågo'): '21 mins', ('Kårtveit', 'Arefjord'): '19 mins', ('Kårtveit', 'Ebbesvika'): '22 mins', ('Kårtveit', 'Landro'): '6 mins', ('Kårtveit', 'Hjelteryggen'): '19 mins', ('Kårtveit', 'Skogsvåg'): '26 mins', ('Kårtveit', 'Kleppe'): '37 mins', ('Kårtveit', 'Solsvik'): '7 mins', ('Kårtveit', 'Rongøy'): '14 mins', ('Kårtveit', 'Hammersland'): '26 mins', ('Kårtveit', 'Vorland'): '31 mins', ('Kårtveit', 'Tofterøy'): '37 mins', ('Kårtveit', 'Bergenhus'): '34 mins', ('Kårtveit', 'Laksevåg'): '24 mins', ('Kårtveit', 'Ytrebygda'): '32 mins', ('Kårtveit', 'Årstad'): '34 mins', ('Telavåg', 'Knappskog'): '28 mins', ('Telavåg', 'Kolltveit'): '26 mins', ('Telavåg', 'Kårtveit'): '35 mins', ('Telavåg', 'Straume'): '29 mins', ('Telavåg', 'Knarrevik'): '30 mins', ('Telavåg', 'Bildøyna'): '26 mins', ('Telavåg', 'Spjeld'): '29 mins', ('Telavåg', 'Foldnes'): '32 mins', ('Telavåg', 'Brattholmen'): '33 mins', ('Telavåg', 'Blomøy'): '49 mins', ('Telavåg', 'Hellesøy'): '1 hour 8 mins', ('Telavåg', 'Vågo'): '33 mins', ('Telavåg', 'Arefjord'): '31 mins', ('Telavåg', 'Ebbesvika'): '35 mins', ('Telavåg', 'Landro'): '37 mins', ('Telavåg', 'Hjelteryggen'): '31 mins', ('Telavåg', 'Skogsvåg'): '13 mins', ('Telavåg', 'Kleppe'): '17 mins', ('Telavåg', 'Solsvik'): '38 mins', ('Telavåg', 'Rongøy'): '44 mins', ('Telavåg', 'Hammersland'): '11 mins', ('Telavåg', 'Vorland'): '11 mins', ('Telavåg', 'Tofterøy'): '17 mins', ('Telavåg', 'Bergenhus'): '46 mins', ('Telavåg', 'Laksevåg'): '37 mins', ('Telavåg', 'Ytrebygda'): '44 mins', ('Telavåg', 'Årstad'): '46 mins', ('Straume', 'Knappskog'): '10 mins', ('Straume', 'Kolltveit'): '8 mins', ('Straume', 'Kårtveit'): '17 mins', ('Straume', 'Telavåg'): '29 mins', ('Straume', 'Knarrevik'): '5 mins', ('Straume', 'Bildøyna'): '4 mins', ('Straume', 'Spjeld'): '11 mins', ('Straume', 'Foldnes'): '6 mins', ('Straume', 'Brattholmen'): '6 mins', ('Straume', 'Blomøy'): '30 mins', ('Straume', 'Hellesøy'): '49 mins', ('Straume', 'Vågo'): '8 mins', ('Straume', 'Arefjord'): '4 mins', ('Straume', 'Ebbesvika'): '8 mins', ('Straume', 'Landro'): '19 mins', ('Straume', 'Hjelteryggen'): '7 mins', ('Straume', 'Skogsvåg'): '20 mins', ('Straume', 'Kleppe'): '31 mins', ('Straume', 'Solsvik'): '20 mins', ('Straume', 'Rongøy'): '26 mins', ('Straume', 'Hammersland'): '20 mins', ('Straume', 'Vorland'): '25 mins', ('Straume', 'Tofterøy'): '31 mins', ('Straume', 'Bergenhus'): '22 mins', ('Straume', 'Laksevåg'): '12 mins', ('Straume', 'Ytrebygda'): '20 mins', ('Straume', 'Årstad'): '22 mins', ('Knarrevik', 'Knappskog'): '15 mins', ('Knarrevik', 'Kolltveit'): '13 mins', ('Knarrevik', 'Kårtveit'): '21 mins', ('Knarrevik', 'Telavåg'): '34 mins', ('Knarrevik', 'Straume'): '7 mins', ('Knarrevik', 'Bildøyna'): '9 mins', ('Knarrevik', 'Spjeld'): '16 mins', ('Knarrevik', 'Foldnes'): '11 mins', ('Knarrevik', 'Brattholmen'): '4 mins', ('Knarrevik', 'Blomøy'): '35 mins', ('Knarrevik', 'Hellesøy'): '54 mins', ('Knarrevik', 'Vågo'): '13 mins', ('Knarrevik', 'Arefjord'): '3 mins', ('Knarrevik', 'Ebbesvika'): '9 mins', ('Knarrevik', 'Landro'): '23 mins', ('Knarrevik', 'Hjelteryggen'): '3 mins', ('Knarrevik', 'Skogsvåg'): '25 mins', ('Knarrevik', 'Kleppe'): '36 mins', ('Knarrevik', 'Solsvik'): '25 mins', ('Knarrevik', 'Rongøy'): '30 mins', ('Knarrevik', 'Hammersland'): '25 mins', ('Knarrevik', 'Vorland'): '30 mins', ('Knarrevik', 'Tofterøy'): '36 mins', ('Knarrevik', 'Bergenhus'): '19 mins', ('Knarrevik', 'Laksevåg'): '9 mins', ('Knarrevik', 'Ytrebygda'): '16 mins', ('Knarrevik', 'Årstad'): '19 mins', ('Bildøyna', 'Knappskog'): '7 mins', ('Bildøyna', 'Kolltveit'): '5 mins', ('Bildøyna', 'Kårtveit'): '14 mins', ('Bildøyna', 'Telavåg'): '27 mins', ('Bildøyna', 'Straume'): '4 mins', ('Bildøyna', 'Knarrevik'): '4 mins', ('Bildøyna', 'Spjeld'): '8 mins', ('Bildøyna', 'Foldnes'): '6 mins', ('Bildøyna', 'Brattholmen'): '7 mins', ('Bildøyna', 'Blomøy'): '28 mins', ('Bildøyna', 'Hellesøy'): '47 mins', ('Bildøyna', 'Vågo'): '8 mins', ('Bildøyna', 'Arefjord'): '6 mins', ('Bildøyna', 'Ebbesvika'): '10 mins', ('Bildøyna', 'Landro'): '16 mins', ('Bildøyna', 'Hjelteryggen'): '6 mins', ('Bildøyna', 'Skogsvåg'): '17 mins', ('Bildøyna', 'Kleppe'): '29 mins', ('Bildøyna', 'Solsvik'): '17 mins', ('Bildøyna', 'Rongøy'): '23 mins', ('Bildøyna', 'Hammersland'): '18 mins', ('Bildøyna', 'Vorland'): '22 mins', ('Bildøyna', 'Tofterøy'): '29 mins', ('Bildøyna', 'Bergenhus'): '21 mins', ('Bildøyna', 'Laksevåg'): '11 mins', ('Bildøyna', 'Ytrebygda'): '19 mins', ('Bildøyna', 'Årstad'): '21 mins', ('Spjeld', 'Knappskog'): '2 mins', ('Spjeld', 'Kolltveit'): '7 mins', ('Spjeld', 'Kårtveit'): '6 mins', ('Spjeld', 'Telavåg'): '29 mins', ('Spjeld', 'Straume'): '11 mins', ('Spjeld', 'Knarrevik'): '12 mins', ('Spjeld', 'Bildøyna'): '8 mins', ('Spjeld', 'Foldnes'): '14 mins', ('Spjeld', 'Brattholmen'): '14 mins', ('Spjeld', 'Blomøy'): '20 mins', ('Spjeld', 'Hellesøy'): '39 mins', ('Spjeld', 'Vågo'): '15 mins', ('Spjeld', 'Arefjord'): '13 mins', ('Spjeld', 'Ebbesvika'): '17 mins', ('Spjeld', 'Landro'): '8 mins', ('Spjeld', 'Hjelteryggen'): '13 mins', ('Spjeld', 'Skogsvåg'): '20 mins', ('Spjeld', 'Kleppe'): '31 mins', ('Spjeld', 'Solsvik'): '9 mins', ('Spjeld', 'Rongøy'): '15 mins', ('Spjeld', 'Hammersland'): '20 mins', ('Spjeld', 'Vorland'): '25 mins', ('Spjeld', 'Tofterøy'): '31 mins', ('Spjeld', 'Bergenhus'): '28 mins', ('Spjeld', 'Laksevåg'): '19 mins', ('Spjeld', 'Ytrebygda'): '26 mins', ('Spjeld', 'Årstad'): '28 mins', ('Foldnes', 'Knappskog'): '11 mins', ('Foldnes', 'Kolltveit'): '9 mins', ('Foldnes', 'Kårtveit'): '18 mins', ('Foldnes', 'Telavåg'): '31 mins', ('Foldnes', 'Straume'): '6 mins', ('Foldnes', 'Knarrevik'): '8 mins', ('Foldnes', 'Bildøyna'): '6 mins', ('Foldnes', 'Spjeld'): '13 mins', ('Foldnes', 'Brattholmen'): '10 mins', ('Foldnes', 'Blomøy'): '32 mins', ('Foldnes', 'Hellesøy'): '51 mins', ('Foldnes', 'Vågo'): '3 mins', ('Foldnes', 'Arefjord'): '9 mins', ('Foldnes', 'Ebbesvika'): '12 mins', ('Foldnes', 'Landro'): '20 mins', ('Foldnes', 'Hjelteryggen'): '9 mins', ('Foldnes', 'Skogsvåg'): '22 mins', ('Foldnes', 'Kleppe'): '33 mins', ('Foldnes', 'Solsvik'): '22 mins', ('Foldnes', 'Rongøy'): '27 mins', ('Foldnes', 'Hammersland'): '22 mins', ('Foldnes', 'Vorland'): '27 mins', ('Foldnes', 'Tofterøy'): '33 mins', ('Foldnes', 'Bergenhus'): '25 mins', ('Foldnes', 'Laksevåg'): '15 mins', ('Foldnes', 'Ytrebygda'): '22 mins', ('Foldnes', 'Årstad'): '25 mins', ('Brattholmen', 'Knappskog'): '14 mins', ('Brattholmen', 'Kolltveit'): '12 mins', ('Brattholmen', 'Kårtveit'): '21 mins', ('Brattholmen', 'Telavåg'): '33 mins', ('Brattholmen', 'Straume'): '6 mins', ('Brattholmen', 'Knarrevik'): '5 mins', ('Brattholmen', 'Bildøyna'): '8 mins', ('Brattholmen', 'Spjeld'): '15 mins', ('Brattholmen', 'Foldnes'): '10 mins', ('Brattholmen', 'Blomøy'): '34 mins', ('Brattholmen', 'Hellesøy'): '53 mins', ('Brattholmen', 'Vågo'): '12 mins', ('Brattholmen', 'Arefjord'): '3 mins', ('Brattholmen', 'Ebbesvika'): '6 mins', ('Brattholmen', 'Landro'): '23 mins', ('Brattholmen', 'Hjelteryggen'): '7 mins', ('Brattholmen', 'Skogsvåg'): '24 mins', ('Brattholmen', 'Kleppe'): '35 mins', ('Brattholmen', 'Solsvik'): '24 mins', ('Brattholmen', 'Rongøy'): '30 mins', ('Brattholmen', 'Hammersland'): '24 mins', ('Brattholmen', 'Vorland'): '29 mins', ('Brattholmen', 'Tofterøy'): '35 mins', ('Brattholmen', 'Bergenhus'): '22 mins', ('Brattholmen', 'Laksevåg'): '13 mins', ('Brattholmen', 'Ytrebygda'): '20 mins', ('Brattholmen', 'Årstad'): '22 mins', ('Blomøy', 'Knappskog'): '23 mins', ('Blomøy', 'Kolltveit'): '28 mins', ('Blomøy', 'Kårtveit'): '20 mins', ('Blomøy', 'Telavåg'): '50 mins', ('Blomøy', 'Straume'): '32 mins', ('Blomøy', 'Knarrevik'): '32 mins', ('Blomøy', 'Bildøyna'): '29 mins', ('Blomøy', 'Spjeld'): '21 mins', ('Blomøy', 'Foldnes'): '34 mins', ('Blomøy', 'Brattholmen'): '35 mins', ('Blomøy', 'Hellesøy'): '22 mins', ('Blomøy', 'Vågo'): '36 mins', ('Blomøy', 'Arefjord'): '34 mins', ('Blomøy', 'Ebbesvika'): '37 mins', ('Blomøy', 'Landro'): '19 mins', ('Blomøy', 'Hjelteryggen'): '34 mins', ('Blomøy', 'Skogsvåg'): '41 mins', ('Blomøy', 'Kleppe'): '52 mins', ('Blomøy', 'Solsvik'): '18 mins', ('Blomøy', 'Rongøy'): '6 mins', ('Blomøy', 'Hammersland'): '41 mins', ('Blomøy', 'Vorland'): '46 mins', ('Blomøy', 'Tofterøy'): '52 mins', ('Blomøy', 'Bergenhus'): '49 mins', ('Blomøy', 'Laksevåg'): '39 mins', ('Blomøy', 'Ytrebygda'): '47 mins', ('Blomøy', 'Årstad'): '49 mins', ('Hellesøy', 'Knappskog'): '41 mins', ('Hellesøy', 'Kolltveit'): '46 mins', ('Hellesøy', 'Kårtveit'): '38 mins', ('Hellesøy', 'Telavåg'): '1 hour 8 mins', ('Hellesøy', 'Straume'): '50 mins', ('Hellesøy', 'Knarrevik'): '50 mins', ('Hellesøy', 'Bildøyna'): '47 mins', ('Hellesøy', 'Spjeld'): '39 mins', ('Hellesøy', 'Foldnes'): '52 mins', ('Hellesøy', 'Brattholmen'): '53 mins', ('Hellesøy', 'Blomøy'): '23 mins', ('Hellesøy', 'Vågo'): '54 mins', ('Hellesøy', 'Arefjord'): '52 mins', ('Hellesøy', 'Ebbesvika'): '55 mins', ('Hellesøy', 'Landro'): '37 mins', ('Hellesøy', 'Hjelteryggen'): '52 mins', ('Hellesøy', 'Skogsvåg'): '59 mins', ('Hellesøy', 'Kleppe'): '1 hour 10 mins', ('Hellesøy', 'Solsvik'): '36 mins', ('Hellesøy', 'Rongøy'): '24 mins', ('Hellesøy', 'Hammersland'): '59 mins', ('Hellesøy', 'Vorland'): '1 hour 4 mins', ('Hellesøy', 'Tofterøy'): '1 hour 10 mins', ('Hellesøy', 'Bergenhus'): '1 hour 7 mins', ('Hellesøy', 'Laksevåg'): '57 mins', ('Hellesøy', 'Ytrebygda'): '1 hour 5 mins', ('Hellesøy', 'Årstad'): '1 hour 7 mins', ('Vågo', 'Knappskog'): '13 mins', ('Vågo', 'Kolltveit'): '11 mins', ('Vågo', 'Kårtveit'): '20 mins', ('Vågo', 'Telavåg'): '33 mins', ('Vågo', 'Straume'): '7 mins', ('Vågo', 'Knarrevik'): '10 mins', ('Vågo', 'Bildøyna'): '7 mins', ('Vågo', 'Spjeld'): '14 mins', ('Vågo', 'Foldnes'): '3 mins', ('Vågo', 'Brattholmen'): '12 mins', ('Vågo', 'Blomøy'): '34 mins', ('Vågo', 'Hellesøy'): '53 mins', ('Vågo', 'Arefjord'): '10 mins', ('Vågo', 'Ebbesvika'): '14 mins', ('Vågo', 'Landro'): '22 mins', ('Vågo', 'Hjelteryggen'): '11 mins', ('Vågo', 'Skogsvåg'): '23 mins', ('Vågo', 'Kleppe'): '35 mins', ('Vågo', 'Solsvik'): '23 mins', ('Vågo', 'Rongøy'): '29 mins', ('Vågo', 'Hammersland'): '24 mins', ('Vågo', 'Vorland'): '28 mins', ('Vågo', 'Tofterøy'): '35 mins', ('Vågo', 'Bergenhus'): '26 mins', ('Vågo', 'Laksevåg'): '17 mins', ('Vågo', 'Ytrebygda'): '24 mins', ('Vågo', 'Årstad'): '26 mins', ('Arefjord', 'Knappskog'): '12 mins', ('Arefjord', 'Kolltveit'): '11 mins', ('Arefjord', 'Kårtveit'): '19 mins', ('Arefjord', 'Telavåg'): '32 mins', ('Arefjord', 'Straume'): '4 mins', ('Arefjord', 'Knarrevik'): '4 mins', ('Arefjord', 'Bildøyna'): '7 mins', ('Arefjord', 'Spjeld'): '13 mins', ('Arefjord', 'Foldnes'): '9 mins', ('Arefjord', 'Brattholmen'): '3 mins', ('Arefjord', 'Blomøy'): '33 mins', ('Arefjord', 'Hellesøy'): '52 mins', ('Arefjord', 'Vågo'): '10 mins', ('Arefjord', 'Ebbesvika'): '7 mins', ('Arefjord', 'Landro'): '21 mins', ('Arefjord', 'Hjelteryggen'): '6 mins', ('Arefjord', 'Skogsvåg'): '23 mins', ('Arefjord', 'Kleppe'): '34 mins', ('Arefjord', 'Solsvik'): '23 mins', ('Arefjord', 'Rongøy'): '28 mins', ('Arefjord', 'Hammersland'): '23 mins', ('Arefjord', 'Vorland'): '28 mins', ('Arefjord', 'Tofterøy'): '34 mins', ('Arefjord', 'Bergenhus'): '21 mins', ('Arefjord', 'Laksevåg'): '12 mins', ('Arefjord', 'Ytrebygda'): '19 mins', ('Arefjord', 'Årstad'): '21 mins', ('Ebbesvika', 'Knappskog'): '16 mins', ('Ebbesvika', 'Kolltveit'): '14 mins', ('Ebbesvika', 'Kårtveit'): '23 mins', ('Ebbesvika', 'Telavåg'): '35 mins', ('Ebbesvika', 'Straume'): '8 mins', ('Ebbesvika', 'Knarrevik'): '9 mins', ('Ebbesvika', 'Bildøyna'): '10 mins', ('Ebbesvika', 'Spjeld'): '17 mins', ('Ebbesvika', 'Foldnes'): '12 mins', ('Ebbesvika', 'Brattholmen'): '5 mins', ('Ebbesvika', 'Blomøy'): '37 mins', ('Ebbesvika', 'Hellesøy'): '56 mins', ('Ebbesvika', 'Vågo'): '14 mins', ('Ebbesvika', 'Arefjord'): '6 mins', ('Ebbesvika', 'Landro'): '25 mins', ('Ebbesvika', 'Hjelteryggen'): '11 mins', ('Ebbesvika', 'Skogsvåg'): '26 mins', ('Ebbesvika', 'Kleppe'): '38 mins', ('Ebbesvika', 'Solsvik'): '26 mins', ('Ebbesvika', 'Rongøy'): '32 mins', ('Ebbesvika', 'Hammersland'): '26 mins', ('Ebbesvika', 'Vorland'): '31 mins', ('Ebbesvika', 'Tofterøy'): '37 mins', ('Ebbesvika', 'Bergenhus'): '26 mins', ('Ebbesvika', 'Laksevåg'): '16 mins', ('Ebbesvika', 'Ytrebygda'): '23 mins', ('Ebbesvika', 'Årstad'): '26 mins', ('Landro', 'Knappskog'): '10 mins', ('Landro', 'Kolltveit'): '15 mins', ('Landro', 'Kårtveit'): '6 mins', ('Landro', 'Telavåg'): '37 mins', ('Landro', 'Straume'): '19 mins', ('Landro', 'Knarrevik'): '19 mins', ('Landro', 'Bildøyna'): '16 mins', ('Landro', 'Spjeld'): '8 mins', ('Landro', 'Foldnes'): '21 mins', ('Landro', 'Brattholmen'): '22 mins', ('Landro', 'Blomøy'): '18 mins', ('Landro', 'Hellesøy'): '37 mins', ('Landro', 'Vågo'): '23 mins', ('Landro', 'Arefjord'): '21 mins', ('Landro', 'Ebbesvika'): '24 mins', ('Landro', 'Hjelteryggen'): '21 mins', ('Landro', 'Skogsvåg'): '28 mins', ('Landro', 'Kleppe'): '39 mins', ('Landro', 'Solsvik'): '2 mins', ('Landro', 'Rongøy'): '13 mins', ('Landro', 'Hammersland'): '28 mins', ('Landro', 'Vorland'): '33 mins', ('Landro', 'Tofterøy'): '39 mins', ('Landro', 'Bergenhus'): '36 mins', ('Landro', 'Laksevåg'): '26 mins', ('Landro', 'Ytrebygda'): '34 mins', ('Landro', 'Årstad'): '36 mins', ('Hjelteryggen', 'Knappskog'): '12 mins', ('Hjelteryggen', 'Kolltveit'): '10 mins', ('Hjelteryggen', 'Kårtveit'): '19 mins', ('Hjelteryggen', 'Telavåg'): '31 mins', ('Hjelteryggen', 'Straume'): '6 mins', ('Hjelteryggen', 'Knarrevik'): '4 mins', ('Hjelteryggen', 'Bildøyna'): '6 mins', ('Hjelteryggen', 'Spjeld'): '13 mins', ('Hjelteryggen', 'Foldnes'): '8 mins', ('Hjelteryggen', 'Brattholmen'): '7 mins', ('Hjelteryggen', 'Blomøy'): '33 mins', ('Hjelteryggen', 'Hellesøy'): '51 mins', ('Hjelteryggen', 'Vågo'): '10 mins', ('Hjelteryggen', 'Arefjord'): '6 mins', ('Hjelteryggen', 'Ebbesvika'): '11 mins', ('Hjelteryggen', 'Landro'): '21 mins', ('Hjelteryggen', 'Skogsvåg'): '22 mins', ('Hjelteryggen', 'Kleppe'): '33 mins', ('Hjelteryggen', 'Solsvik'): '22 mins', ('Hjelteryggen', 'Rongøy'): '28 mins', ('Hjelteryggen', 'Hammersland'): '22 mins', ('Hjelteryggen', 'Vorland'): '27 mins', ('Hjelteryggen', 'Tofterøy'): '33 mins', ('Hjelteryggen', 'Bergenhus'): '20 mins', ('Hjelteryggen', 'Laksevåg'): '10 mins', ('Hjelteryggen', 'Ytrebygda'): '17 mins', ('Hjelteryggen', 'Årstad'): '20 mins', ('Skogsvåg', 'Knappskog'): '19 mins', ('Skogsvåg', 'Kolltveit'): '16 mins', ('Skogsvåg', 'Kårtveit'): '26 mins', ('Skogsvåg', 'Telavåg'): '13 mins', ('Skogsvåg', 'Straume'): '20 mins', ('Skogsvåg', 'Knarrevik'): '20 mins', ('Skogsvåg', 'Bildøyna'): '17 mins', ('Skogsvåg', 'Spjeld'): '20 mins', ('Skogsvåg', 'Foldnes'): '22 mins', ('Skogsvåg', 'Brattholmen'): '23 mins', ('Skogsvåg', 'Blomøy'): '39 mins', ('Skogsvåg', 'Hellesøy'): '58 mins', ('Skogsvåg', 'Vågo'): '24 mins', ('Skogsvåg', 'Arefjord'): '22 mins', ('Skogsvåg', 'Ebbesvika'): '25 mins', ('Skogsvåg', 'Landro'): '28 mins', ('Skogsvåg', 'Hjelteryggen'): '22 mins', ('Skogsvåg', 'Kleppe'): '12 mins', ('Skogsvåg', 'Solsvik'): '29 mins', ('Skogsvåg', 'Rongøy'): '35 mins', ('Skogsvåg', 'Hammersland'): '4 mins', ('Skogsvåg', 'Vorland'): '9 mins', ('Skogsvåg', 'Tofterøy'): '15 mins', ('Skogsvåg', 'Bergenhus'): '37 mins', ('Skogsvåg', 'Laksevåg'): '27 mins', ('Skogsvåg', 'Ytrebygda'): '35 mins', ('Skogsvåg', 'Årstad'): '37 mins', ('Kleppe', 'Knappskog'): '30 mins', ('Kleppe', 'Kolltveit'): '28 mins', ('Kleppe', 'Kårtveit'): '37 mins', ('Kleppe', 'Telavåg'): '17 mins', ('Kleppe', 'Straume'): '31 mins', ('Kleppe', 'Knarrevik'): '32 mins', ('Kleppe', 'Bildøyna'): '28 mins', ('Kleppe', 'Spjeld'): '31 mins', ('Kleppe', 'Foldnes'): '34 mins', ('Kleppe', 'Brattholmen'): '35 mins', ('Kleppe', 'Blomøy'): '51 mins', ('Kleppe', 'Hellesøy'): '1 hour 10 mins', ('Kleppe', 'Vågo'): '35 mins', ('Kleppe', 'Arefjord'): '33 mins', ('Kleppe', 'Ebbesvika'): '37 mins', ('Kleppe', 'Landro'): '39 mins', ('Kleppe', 'Hjelteryggen'): '33 mins', ('Kleppe', 'Skogsvåg'): '12 mins', ('Kleppe', 'Solsvik'): '40 mins', ('Kleppe', 'Rongøy'): '46 mins', ('Kleppe', 'Hammersland'): '13 mins', ('Kleppe', 'Vorland'): '7 mins', ('Kleppe', 'Tofterøy'): '9 mins', ('Kleppe', 'Bergenhus'): '48 mins', ('Kleppe', 'Laksevåg'): '39 mins', ('Kleppe', 'Ytrebygda'): '46 mins', ('Kleppe', 'Årstad'): '48 mins', ('Solsvik', 'Knappskog'): '11 mins', ('Solsvik', 'Kolltveit'): '16 mins', ('Solsvik', 'Kårtveit'): '7 mins', ('Solsvik', 'Telavåg'): '38 mins', ('Solsvik', 'Straume'): '20 mins', ('Solsvik', 'Knarrevik'): '20 mins', ('Solsvik', 'Bildøyna'): '17 mins', ('Solsvik', 'Spjeld'): '9 mins', ('Solsvik', 'Foldnes'): '22 mins', ('Solsvik', 'Brattholmen'): '23 mins', ('Solsvik', 'Blomøy'): '16 mins', ('Solsvik', 'Hellesøy'): '35 mins', ('Solsvik', 'Vågo'): '24 mins', ('Solsvik', 'Arefjord'): '22 mins', ('Solsvik', 'Ebbesvika'): '26 mins', ('Solsvik', 'Landro'): '2 mins', ('Solsvik', 'Hjelteryggen'): '22 mins', ('Solsvik', 'Skogsvåg'): '29 mins', ('Solsvik', 'Kleppe'): '40 mins', ('Solsvik', 'Rongøy'): '12 mins', ('Solsvik', 'Hammersland'): '29 mins', ('Solsvik', 'Vorland'): '34 mins', ('Solsvik', 'Tofterøy'): '40 mins', ('Solsvik', 'Bergenhus'): '37 mins', ('Solsvik', 'Laksevåg'): '27 mins', ('Solsvik', 'Ytrebygda'): '35 mins', ('Solsvik', 'Årstad'): '37 mins', ('Rongøy', 'Knappskog'): '17 mins', ('Rongøy', 'Kolltveit'): '22 mins', ('Rongøy', 'Kårtveit'): '14 mins', ('Rongøy', 'Telavåg'): '44 mins', ('Rongøy', 'Straume'): '26 mins', ('Rongøy', 'Knarrevik'): '26 mins', ('Rongøy', 'Bildøyna'): '23 mins', ('Rongøy', 'Spjeld'): '15 mins', ('Rongøy', 'Foldnes'): '28 mins', ('Rongøy', 'Brattholmen'): '29 mins', ('Rongøy', 'Blomøy'): '5 mins', ('Rongøy', 'Hellesøy'): '24 mins', ('Rongøy', 'Vågo'): '30 mins', ('Rongøy', 'Arefjord'): '28 mins', ('Rongøy', 'Ebbesvika'): '31 mins', ('Rongøy', 'Landro'): '13 mins', ('Rongøy', 'Hjelteryggen'): '28 mins', ('Rongøy', 'Skogsvåg'): '35 mins', ('Rongøy', 'Kleppe'): '46 mins', ('Rongøy', 'Solsvik'): '12 mins', ('Rongøy', 'Hammersland'): '35 mins', ('Rongøy', 'Vorland'): '40 mins', ('Rongøy', 'Tofterøy'): '46 mins', ('Rongøy', 'Bergenhus'): '43 mins', ('Rongøy', 'Laksevåg'): '33 mins', ('Rongøy', 'Ytrebygda'): '41 mins', ('Rongøy', 'Årstad'): '43 mins', ('Hammersland', 'Knappskog'): '19 mins', ('Hammersland', 'Kolltveit'): '17 mins', ('Hammersland', 'Kårtveit'): '26 mins', ('Hammersland', 'Telavåg'): '11 mins', ('Hammersland', 'Straume'): '20 mins', ('Hammersland', 'Knarrevik'): '21 mins', ('Hammersland', 'Bildøyna'): '17 mins', ('Hammersland', 'Spjeld'): '20 mins', ('Hammersland', 'Foldnes'): '23 mins', ('Hammersland', 'Brattholmen'): '24 mins', ('Hammersland', 'Blomøy'): '40 mins', ('Hammersland', 'Hellesøy'): '59 mins', ('Hammersland', 'Vågo'): '24 mins', ('Hammersland', 'Arefjord'): '22 mins', ('Hammersland', 'Ebbesvika'): '26 mins', ('Hammersland', 'Landro'): '28 mins', ('Hammersland', 'Hjelteryggen'): '22 mins', ('Hammersland', 'Skogsvåg'): '4 mins', ('Hammersland', 'Kleppe'): '13 mins', ('Hammersland', 'Solsvik'): '29 mins', ('Hammersland', 'Rongøy'): '35 mins', ('Hammersland', 'Vorland'): '7 mins', ('Hammersland', 'Tofterøy'): '13 mins', ('Hammersland', 'Bergenhus'): '37 mins', ('Hammersland', 'Laksevåg'): '28 mins', ('Hammersland', 'Ytrebygda'): '35 mins', ('Hammersland', 'Årstad'): '37 mins', ('Vorland', 'Knappskog'): '24 mins', ('Vorland', 'Kolltveit'): '21 mins', ('Vorland', 'Kårtveit'): '31 mins', ('Vorland', 'Telavåg'): '11 mins', ('Vorland', 'Straume'): '25 mins', ('Vorland', 'Knarrevik'): '25 mins', ('Vorland', 'Bildøyna'): '22 mins', ('Vorland', 'Spjeld'): '25 mins', ('Vorland', 'Foldnes'): '27 mins', ('Vorland', 'Brattholmen'): '28 mins', ('Vorland', 'Blomøy'): '44 mins', ('Vorland', 'Hellesøy'): '1 hour 3 mins', ('Vorland', 'Vågo'): '29 mins', ('Vorland', 'Arefjord'): '27 mins', ('Vorland', 'Ebbesvika'): '30 mins', ('Vorland', 'Landro'): '33 mins', ('Vorland', 'Hjelteryggen'): '27 mins', ('Vorland', 'Skogsvåg'): '8 mins', ('Vorland', 'Kleppe'): '9 mins', ('Vorland', 'Solsvik'): '34 mins', ('Vorland', 'Rongøy'): '40 mins', ('Vorland', 'Hammersland'): '6 mins', ('Vorland', 'Tofterøy'): '8 mins', ('Vorland', 'Bergenhus'): '42 mins', ('Vorland', 'Laksevåg'): '32 mins', ('Vorland', 'Ytrebygda'): '40 mins', ('Vorland', 'Årstad'): '42 mins', ('Tofterøy', 'Knappskog'): '30 mins', ('Tofterøy', 'Kolltveit'): '28 mins', ('Tofterøy', 'Kårtveit'): '37 mins', ('Tofterøy', 'Telavåg'): '18 mins', ('Tofterøy', 'Straume'): '31 mins', ('Tofterøy', 'Knarrevik'): '32 mins', ('Tofterøy', 'Bildøyna'): '28 mins', ('Tofterøy', 'Spjeld'): '32 mins', ('Tofterøy', 'Foldnes'): '34 mins', ('Tofterøy', 'Brattholmen'): '35 mins', ('Tofterøy', 'Blomøy'): '51 mins', ('Tofterøy', 'Hellesøy'): '1 hour 10 mins', ('Tofterøy', 'Vågo'): '36 mins', ('Tofterøy', 'Arefjord'): '33 mins', ('Tofterøy', 'Ebbesvika'): '37 mins', ('Tofterøy', 'Landro'): '39 mins', ('Tofterøy', 'Hjelteryggen'): '34 mins', ('Tofterøy', 'Skogsvåg'): '15 mins', ('Tofterøy', 'Kleppe'): '10 mins', ('Tofterøy', 'Solsvik'): '41 mins', ('Tofterøy', 'Rongøy'): '46 mins', ('Tofterøy', 'Hammersland'): '13 mins', ('Tofterøy', 'Vorland'): '8 mins', ('Tofterøy', 'Bergenhus'): '49 mins', ('Tofterøy', 'Laksevåg'): '39 mins', ('Tofterøy', 'Ytrebygda'): '46 mins', ('Tofterøy', 'Årstad'): '49 mins', ('Bergenhus', 'Laksevåg'): '10 mins', ('Bergenhus', 'Ytrebygda'): '20 mins', ('Bergenhus', 'Årstad'): '14 mins', ('Laksevåg', 'Bergenhus'): '11 mins', ('Laksevåg', 'Ytrebygda'): '12 mins', ('Laksevåg', 'Årstad'): '11 mins', ('Ytrebygda', 'Bergenhus'): '22 mins', ('Ytrebygda', 'Laksevåg'): '12 mins', ('Ytrebygda', 'Årstad'): '15 mins', ('Årstad', 'Bergenhus'): '11 mins', ('Årstad', 'Laksevåg'): '10 mins', ('Årstad', 'Ytrebygda'): '16 mins'}</t>
+  </si>
+  <si>
+    <t>{('Knappskog', 'Kolltveit'): [{'elements': [{'distance': {'text': '4.1 km', 'value': 4129}, 'duration': {'text': '5 mins', 'value': 310}, 'status': 'OK'}]}], ('Knappskog', 'Kårtveit'): [{'elements': [{'distance': {'text': '6.3 km', 'value': 6346}, 'duration': {'text': '7 mins', 'value': 436}, 'status': 'OK'}]}], ('Knappskog', 'Telavåg'): [{'elements': [{'distance': {'text': '23.6 km', 'value': 23573}, 'duration': {'text': '28 mins', 'value': 1667}, 'status': 'OK'}]}], ('Knappskog', 'Straume'): [{'elements': [{'distance': {'text': '7.8 km', 'value': 7782}, 'duration': {'text': '9 mins', 'value': 521}, 'status': 'OK'}]}], ('Knappskog', 'Knarrevik'): [{'elements': [{'distance': {'text': '9.1 km', 'value': 9140}, 'duration': {'text': '9 mins', 'value': 552}, 'status': 'OK'}]}], ('Knappskog', 'Bildøyna'): [{'elements': [{'distance': {'text': '6.2 km', 'value': 6233}, 'duration': {'text': '7 mins', 'value': 409}, 'status': 'OK'}]}], ('Knappskog', 'Spjeld'): [{'elements': [{'distance': {'text': '1.3 km', 'value': 1340}, 'duration': {'text': '1 min', 'value': 85}, 'status': 'OK'}]}], ('Knappskog', 'Foldnes'): [{'elements': [{'distance': {'text': '10.3 km', 'value': 10326}, 'duration': {'text': '13 mins', 'value': 759}, 'status': 'OK'}]}], ('Knappskog', 'Brattholmen'): [{'elements': [{'distance': {'text': '10.7 km', 'value': 10657}, 'duration': {'text': '12 mins', 'value': 716}, 'status': 'OK'}]}], ('Knappskog', 'Blomøy'): [{'elements': [{'distance': {'text': '21.9 km', 'value': 21858}, 'duration': {'text': '21 mins', 'value': 1280}, 'status': 'OK'}]}], ('Knappskog', 'Hellesøy'): [{'elements': [{'distance': {'text': '39.8 km', 'value': 39755}, 'duration': {'text': '40 mins', 'value': 2422}, 'status': 'OK'}]}], ('Knappskog', 'Vågo'): [{'elements': [{'distance': {'text': '504 km', 'value': 503823}, 'duration': {'text': '8 hours 6 mins', 'value': 29159}, 'status': 'OK'}]}], ('Knappskog', 'Arefjord'): [{'elements': [{'distance': {'text': '10.6 km', 'value': 10614}, 'duration': {'text': '12 mins', 'value': 720}, 'status': 'OK'}]}], ('Knappskog', 'Ebbesvika'): [{'elements': [{'distance': {'text': '287 km', 'value': 287128}, 'duration': {'text': '4 hours 27 mins', 'value': 16008}, 'status': 'OK'}]}], ('Knappskog', 'Landro'): [{'elements': [{'distance': {'text': '7.3 km', 'value': 7262}, 'duration': {'text': '9 mins', 'value': 554}, 'status': 'OK'}]}], ('Knappskog', 'Hjelteryggen'): [{'elements': [{'distance': {'text': '11.0 km', 'value': 11010}, 'duration': {'text': '12 mins', 'value': 725}, 'status': 'OK'}]}], ('Knappskog', 'Skogsvåg'): [{'elements': [{'distance': {'text': '16.7 km', 'value': 16694}, 'duration': {'text': '20 mins', 'value': 1189}, 'status': 'OK'}]}], ('Knappskog', 'Kleppe'): [{'elements': [{'distance': {'text': '245 km', 'value': 245373}, 'duration': {'text': '5 hours 3 mins', 'value': 18203}, 'status': 'OK'}]}], ('Knappskog', 'Solsvik'): [{'elements': [{'distance': {'text': '9.6 km', 'value': 9582}, 'duration': {'text': '11 mins', 'value': 664}, 'status': 'OK'}]}], ('Knappskog', 'Rongøy'): [{'elements': [{'distance': {'text': '18.0 km', 'value': 17958}, 'duration': {'text': '16 mins', 'value': 972}, 'status': 'OK'}]}], ('Knappskog', 'Hammersland'): [{'elements': [{'distance': {'text': '287 km', 'value': 287128}, 'duration': {'text': '4 hours 27 mins', 'value': 16008}, 'status': 'OK'}]}], ('Knappskog', 'Vorland'): [{'elements': [{'distance': {'text': '287 km', 'value': 287128}, 'duration': {'text': '4 hours 27 mins', 'value': 16008}, 'status': 'OK'}]}], ('Knappskog', 'Tofterøy'): [{'elements': [{'distance': {'text': '26.1 km', 'value': 26073}, 'duration': {'text': '31 mins', 'value': 1860}, 'status': 'OK'}]}], ('Knappskog', 'Bergenhus'): [{'elements': [{'distance': {'text': '23.4 km', 'value': 23366}, 'duration': {'text': '27 mins', 'value': 1608}, 'status': 'OK'}]}], ('Knappskog', 'Laksevåg'): [{'elements': [{'distance': {'text': '18.6 km', 'value': 18571}, 'duration': {'text': '20 mins', 'value': 1186}, 'status': 'OK'}]}], ('Knappskog', 'Ytrebygda'): [{'elements': [{'distance': {'text': '24.3 km', 'value': 24287}, 'duration': {'text': '25 mins', 'value': 1487}, 'status': 'OK'}]}], ('Knappskog', 'Årstad'): [{'elements': [{'distance': {'text': '25.1 km', 'value': 25060}, 'duration': {'text': '27 mins', 'value': 1614}, 'status': 'OK'}]}], ('Kolltveit', 'Knappskog'): [{'elements': [{'distance': {'text': '4.1 km', 'value': 4120}, 'duration': {'text': '5 mins', 'value': 305}, 'status': 'OK'}]}], ('Kolltveit', 'Kårtveit'): [{'elements': [{'distance': {'text': '10.5 km', 'value': 10466}, 'duration': {'text': '12 mins', 'value': 740}, 'status': 'OK'}]}], ('Kolltveit', 'Telavåg'): [{'elements': [{'distance': {'text': '20.2 km', 'value': 20225}, 'duration': {'text': '25 mins', 'value': 1519}, 'status': 'OK'}]}], ('Kolltveit', 'Straume'): [{'elements': [{'distance': {'text': '4.1 km', 'value': 4094}, 'duration': {'text': '6 mins', 'value': 369}, 'status': 'OK'}]}], ('Kolltveit', 'Knarrevik'): [{'elements': [{'distance': {'text': '5.5 km', 'value': 5452}, 'duration': {'text': '7 mins', 'value': 400}, 'status': 'OK'}]}], ('Kolltveit', 'Bildøyna'): [{'elements': [{'distance': {'text': '2.5 km', 'value': 2545}, 'duration': {'text': '4 mins', 'value': 257}, 'status': 'OK'}]}], ('Kolltveit', 'Spjeld'): [{'elements': [{'distance': {'text': '5.5 km', 'value': 5460}, 'duration': {'text': '7 mins', 'value': 390}, 'status': 'OK'}]}], ('Kolltveit', 'Foldnes'): [{'elements': [{'distance': {'text': '6.6 km', 'value': 6637}, 'duration': {'text': '10 mins', 'value': 608}, 'status': 'OK'}]}], ('Kolltveit', 'Brattholmen'): [{'elements': [{'distance': {'text': '7.0 km', 'value': 6968}, 'duration': {'text': '9 mins', 'value': 564}, 'status': 'OK'}]}], ('Kolltveit', 'Blomøy'): [{'elements': [{'distance': {'text': '26.0 km', 'value': 25979}, 'duration': {'text': '26 mins', 'value': 1585}, 'status': 'OK'}]}], ('Kolltveit', 'Hellesøy'): [{'elements': [{'distance': {'text': '43.9 km', 'value': 43875}, 'duration': {'text': '45 mins', 'value': 2726}, 'status': 'OK'}]}], ('Kolltveit', 'Vågo'): [{'elements': [{'distance': {'text': '500 km', 'value': 500134}, 'duration': {'text': '8 hours 3 mins', 'value': 29007}, 'status': 'OK'}]}], ('Kolltveit', 'Arefjord'): [{'elements': [{'distance': {'text': '6.9 km', 'value': 6926}, 'duration': {'text': '9 mins', 'value': 569}, 'status': 'OK'}]}], ('Kolltveit', 'Ebbesvika'): [{'elements': [{'distance': {'text': '283 km', 'value': 283440}, 'duration': {'text': '4 hours 24 mins', 'value': 15856}, 'status': 'OK'}]}], ('Kolltveit', 'Landro'): [{'elements': [{'distance': {'text': '11.4 km', 'value': 11383}, 'duration': {'text': '14 mins', 'value': 859}, 'status': 'OK'}]}], ('Kolltveit', 'Hjelteryggen'): [{'elements': [{'distance': {'text': '7.3 km', 'value': 7322}, 'duration': {'text': '10 mins', 'value': 574}, 'status': 'OK'}]}], ('Kolltveit', 'Skogsvåg'): [{'elements': [{'distance': {'text': '13.3 km', 'value': 13346}, 'duration': {'text': '17 mins', 'value': 1041}, 'status': 'OK'}]}], ('Kolltveit', 'Kleppe'): [{'elements': [{'distance': {'text': '242 km', 'value': 241685}, 'duration': {'text': '5 hours 1 min', 'value': 18051}, 'status': 'OK'}]}], ('Kolltveit', 'Solsvik'): [{'elements': [{'distance': {'text': '13.7 km', 'value': 13702}, 'duration': {'text': '16 mins', 'value': 969}, 'status': 'OK'}]}], ('Kolltveit', 'Rongøy'): [{'elements': [{'distance': {'text': '22.1 km', 'value': 22078}, 'duration': {'text': '21 mins', 'value': 1277}, 'status': 'OK'}]}], ('Kolltveit', 'Hammersland'): [{'elements': [{'distance': {'text': '283 km', 'value': 283440}, 'duration': {'text': '4 hours 24 mins', 'value': 15856}, 'status': 'OK'}]}], ('Kolltveit', 'Vorland'): [{'elements': [{'distance': {'text': '283 km', 'value': 283440}, 'duration': {'text': '4 hours 24 mins', 'value': 15856}, 'status': 'OK'}]}], ('Kolltveit', 'Tofterøy'): [{'elements': [{'distance': {'text': '22.7 km', 'value': 22725}, 'duration': {'text': '29 mins', 'value': 1712}, 'status': 'OK'}]}], ('Kolltveit', 'Bergenhus'): [{'elements': [{'distance': {'text': '19.7 km', 'value': 19678}, 'duration': {'text': '24 mins', 'value': 1456}, 'status': 'OK'}]}], ('Kolltveit', 'Laksevåg'): [{'elements': [{'distance': {'text': '14.9 km', 'value': 14883}, 'duration': {'text': '17 mins', 'value': 1035}, 'status': 'OK'}]}], ('Kolltveit', 'Ytrebygda'): [{'elements': [{'distance': {'text': '20.6 km', 'value': 20598}, 'duration': {'text': '22 mins', 'value': 1336}, 'status': 'OK'}]}], ('Kolltveit', 'Årstad'): [{'elements': [{'distance': {'text': '21.4 km', 'value': 21372}, 'duration': {'text': '24 mins', 'value': 1462}, 'status': 'OK'}]}], ('Kårtveit', 'Knappskog'): [{'elements': [{'distance': {'text': '6.3 km', 'value': 6342}, 'duration': {'text': '8 mins', 'value': 462}, 'status': 'OK'}]}], ('Kårtveit', 'Kolltveit'): [{'elements': [{'distance': {'text': '10.5 km', 'value': 10471}, 'duration': {'text': '13 mins', 'value': 772}, 'status': 'OK'}]}], ('Kårtveit', 'Telavåg'): [{'elements': [{'distance': {'text': '29.9 km', 'value': 29915}, 'duration': {'text': '35 mins', 'value': 2128}, 'status': 'OK'}]}], ('Kårtveit', 'Straume'): [{'elements': [{'distance': {'text': '14.1 km', 'value': 14124}, 'duration': {'text': '16 mins', 'value': 982}, 'status': 'OK'}]}], ('Kårtveit', 'Knarrevik'): [{'elements': [{'distance': {'text': '15.5 km', 'value': 15482}, 'duration': {'text': '17 mins', 'value': 1013}, 'status': 'OK'}]}], ('Kårtveit', 'Bildøyna'): [{'elements': [{'distance': {'text': '12.6 km', 'value': 12575}, 'duration': {'text': '15 mins', 'value': 870}, 'status': 'OK'}]}], ('Kårtveit', 'Spjeld'): [{'elements': [{'distance': {'text': '5.0 km', 'value': 5036}, 'duration': {'text': '6 mins', 'value': 382}, 'status': 'OK'}]}], ('Kårtveit', 'Foldnes'): [{'elements': [{'distance': {'text': '16.7 km', 'value': 16668}, 'duration': {'text': '20 mins', 'value': 1221}, 'status': 'OK'}]}], ('Kårtveit', 'Brattholmen'): [{'elements': [{'distance': {'text': '17.0 km', 'value': 16999}, 'duration': {'text': '20 mins', 'value': 1178}, 'status': 'OK'}]}], ('Kårtveit', 'Blomøy'): [{'elements': [{'distance': {'text': '19.6 km', 'value': 19606}, 'duration': {'text': '20 mins', 'value': 1184}, 'status': 'OK'}]}], ('Kårtveit', 'Hellesøy'): [{'elements': [{'distance': {'text': '37.5 km', 'value': 37502}, 'duration': {'text': '39 mins', 'value': 2325}, 'status': 'OK'}]}], ('Kårtveit', 'Vågo'): [{'elements': [{'distance': {'text': '510 km', 'value': 510164}, 'duration': {'text': '8 hours 14 mins', 'value': 29621}, 'status': 'OK'}]}], ('Kårtveit', 'Arefjord'): [{'elements': [{'distance': {'text': '17.0 km', 'value': 16956}, 'duration': {'text': '20 mins', 'value': 1182}, 'status': 'OK'}]}], ('Kårtveit', 'Ebbesvika'): [{'elements': [{'distance': {'text': '293 km', 'value': 293470}, 'duration': {'text': '4 hours 35 mins', 'value': 16470}, 'status': 'OK'}]}], ('Kårtveit', 'Landro'): [{'elements': [{'distance': {'text': '4.6 km', 'value': 4565}, 'duration': {'text': '7 mins', 'value': 402}, 'status': 'OK'}]}], ('Kårtveit', 'Hjelteryggen'): [{'elements': [{'distance': {'text': '17.4 km', 'value': 17352}, 'duration': {'text': '20 mins', 'value': 1187}, 'status': 'OK'}]}], ('Kårtveit', 'Skogsvåg'): [{'elements': [{'distance': {'text': '23.0 km', 'value': 23036}, 'duration': {'text': '28 mins', 'value': 1650}, 'status': 'OK'}]}], ('Kårtveit', 'Kleppe'): [{'elements': [{'distance': {'text': '252 km', 'value': 251715}, 'duration': {'text': '5 hours 11 mins', 'value': 18664}, 'status': 'OK'}]}], ('Kårtveit', 'Solsvik'): [{'elements': [{'distance': {'text': '6.1 km', 'value': 6058}, 'duration': {'text': '9 mins', 'value': 565}, 'status': 'OK'}]}], ('Kårtveit', 'Rongøy'): [{'elements': [{'distance': {'text': '15.7 km', 'value': 15705}, 'duration': {'text': '15 mins', 'value': 876}, 'status': 'OK'}]}], ('Kårtveit', 'Hammersland'): [{'elements': [{'distance': {'text': '293 km', 'value': 293470}, 'duration': {'text': '4 hours 35 mins', 'value': 16470}, 'status': 'OK'}]}], ('Kårtveit', 'Vorland'): [{'elements': [{'distance': {'text': '293 km', 'value': 293470}, 'duration': {'text': '4 hours 35 mins', 'value': 16470}, 'status': 'OK'}]}], ('Kårtveit', 'Tofterøy'): [{'elements': [{'distance': {'text': '32.4 km', 'value': 32415}, 'duration': {'text': '39 mins', 'value': 2322}, 'status': 'OK'}]}], ('Kårtveit', 'Bergenhus'): [{'elements': [{'distance': {'text': '29.7 km', 'value': 29708}, 'duration': {'text': '34 mins', 'value': 2069}, 'status': 'OK'}]}], ('Kårtveit', 'Laksevåg'): [{'elements': [{'distance': {'text': '24.9 km', 'value': 24913}, 'duration': {'text': '27 mins', 'value': 1648}, 'status': 'OK'}]}], ('Kårtveit', 'Ytrebygda'): [{'elements': [{'distance': {'text': '30.6 km', 'value': 30628}, 'duration': {'text': '32 mins', 'value': 1949}, 'status': 'OK'}]}], ('Kårtveit', 'Årstad'): [{'elements': [{'distance': {'text': '31.4 km', 'value': 31402}, 'duration': {'text': '35 mins', 'value': 2076}, 'status': 'OK'}]}], ('Telavåg', 'Knappskog'): [{'elements': [{'distance': {'text': '23.6 km', 'value': 23611}, 'duration': {'text': '28 mins', 'value': 1664}, 'status': 'OK'}]}], ('Telavåg', 'Kolltveit'): [{'elements': [{'distance': {'text': '20.3 km', 'value': 20276}, 'duration': {'text': '25 mins', 'value': 1508}, 'status': 'OK'}]}], ('Telavåg', 'Kårtveit'): [{'elements': [{'distance': {'text': '30.0 km', 'value': 29957}, 'duration': {'text': '35 mins', 'value': 2100}, 'status': 'OK'}]}], ('Telavåg', 'Straume'): [{'elements': [{'distance': {'text': '23.3 km', 'value': 23326}, 'duration': {'text': '28 mins', 'value': 1690}, 'status': 'OK'}]}], ('Telavåg', 'Knarrevik'): [{'elements': [{'distance': {'text': '24.7 km', 'value': 24684}, 'duration': {'text': '29 mins', 'value': 1721}, 'status': 'OK'}]}], ('Telavåg', 'Bildøyna'): [{'elements': [{'distance': {'text': '21.8 km', 'value': 21777}, 'duration': {'text': '26 mins', 'value': 1578}, 'status': 'OK'}]}], ('Telavåg', 'Spjeld'): [{'elements': [{'distance': {'text': '25.0 km', 'value': 24951}, 'duration': {'text': '29 mins', 'value': 1749}, 'status': 'OK'}]}], ('Telavåg', 'Foldnes'): [{'elements': [{'distance': {'text': '25.9 km', 'value': 25869}, 'duration': {'text': '32 mins', 'value': 1929}, 'status': 'OK'}]}], ('Telavåg', 'Brattholmen'): [{'elements': [{'distance': {'text': '26.2 km', 'value': 26200}, 'duration': {'text': '31 mins', 'value': 1885}, 'status': 'OK'}]}], ('Telavåg', 'Blomøy'): [{'elements': [{'distance': {'text': '45.5 km', 'value': 45469}, 'duration': {'text': '49 mins', 'value': 2945}, 'status': 'OK'}]}], ('Telavåg', 'Hellesøy'): [{'elements': [{'distance': {'text': '63.4 km', 'value': 63366}, 'duration': {'text': '1 hour 8 mins', 'value': 4086}, 'status': 'OK'}]}], ('Telavåg', 'Vågo'): [{'elements': [{'distance': {'text': '519 km', 'value': 519366}, 'duration': {'text': '8 hours 25 mins', 'value': 30328}, 'status': 'OK'}]}], ('Telavåg', 'Arefjord'): [{'elements': [{'distance': {'text': '26.2 km', 'value': 26158}, 'duration': {'text': '32 mins', 'value': 1890}, 'status': 'OK'}]}], ('Telavåg', 'Ebbesvika'): [{'elements': [{'distance': {'text': '303 km', 'value': 302672}, 'duration': {'text': '4 hours 46 mins', 'value': 17177}, 'status': 'OK'}]}], ('Telavåg', 'Landro'): [{'elements': [{'distance': {'text': '30.9 km', 'value': 30873}, 'duration': {'text': '37 mins', 'value': 2218}, 'status': 'OK'}]}], ('Telavåg', 'Hjelteryggen'): [{'elements': [{'distance': {'text': '26.6 km', 'value': 26554}, 'duration': {'text': '32 mins', 'value': 1895}, 'status': 'OK'}]}], ('Telavåg', 'Skogsvåg'): [{'elements': [{'distance': {'text': '10.9 km', 'value': 10887}, 'duration': {'text': '14 mins', 'value': 837}, 'status': 'OK'}]}], ('Telavåg', 'Kleppe'): [{'elements': [{'distance': {'text': '261 km', 'value': 260917}, 'duration': {'text': '5 hours 23 mins', 'value': 19372}, 'status': 'OK'}]}], ('Telavåg', 'Solsvik'): [{'elements': [{'distance': {'text': '33.2 km', 'value': 33193}, 'duration': {'text': '39 mins', 'value': 2328}, 'status': 'OK'}]}], ('Telavåg', 'Rongøy'): [{'elements': [{'distance': {'text': '41.6 km', 'value': 41569}, 'duration': {'text': '44 mins', 'value': 2636}, 'status': 'OK'}]}], ('Telavåg', 'Hammersland'): [{'elements': [{'distance': {'text': '303 km', 'value': 302672}, 'duration': {'text': '4 hours 46 mins', 'value': 17177}, 'status': 'OK'}]}], ('Telavåg', 'Vorland'): [{'elements': [{'distance': {'text': '303 km', 'value': 302672}, 'duration': {'text': '4 hours 46 mins', 'value': 17177}, 'status': 'OK'}]}], ('Telavåg', 'Tofterøy'): [{'elements': [{'distance': {'text': '15.0 km', 'value': 14960}, 'duration': {'text': '18 mins', 'value': 1090}, 'status': 'OK'}]}], ('Telavåg', 'Bergenhus'): [{'elements': [{'distance': {'text': '38.9 km', 'value': 38910}, 'duration': {'text': '46 mins', 'value': 2777}, 'status': 'OK'}]}], ('Telavåg', 'Laksevåg'): [{'elements': [{'distance': {'text': '34.1 km', 'value': 34115}, 'duration': {'text': '39 mins', 'value': 2356}, 'status': 'OK'}]}], ('Telavåg', 'Ytrebygda'): [{'elements': [{'distance': {'text': '39.8 km', 'value': 39830}, 'duration': {'text': '44 mins', 'value': 2657}, 'status': 'OK'}]}], ('Telavåg', 'Årstad'): [{'elements': [{'distance': {'text': '40.6 km', 'value': 40604}, 'duration': {'text': '46 mins', 'value': 2783}, 'status': 'OK'}]}], ('Straume', 'Knappskog'): [{'elements': [{'distance': {'text': '7.7 km', 'value': 7719}, 'duration': {'text': '9 mins', 'value': 510}, 'status': 'OK'}]}], ('Straume', 'Kolltveit'): [{'elements': [{'distance': {'text': '3.7 km', 'value': 3693}, 'duration': {'text': '7 mins', 'value': 406}, 'status': 'OK'}]}], ('Straume', 'Kårtveit'): [{'elements': [{'distance': {'text': '14.1 km', 'value': 14065}, 'duration': {'text': '16 mins', 'value': 946}, 'status': 'OK'}]}], ('Straume', 'Telavåg'): [{'elements': [{'distance': {'text': '23.3 km', 'value': 23291}, 'duration': {'text': '28 mins', 'value': 1689}, 'status': 'OK'}]}], ('Straume', 'Knarrevik'): [{'elements': [{'distance': {'text': '2.6 km', 'value': 2562}, 'duration': {'text': '4 mins', 'value': 217}, 'status': 'OK'}]}], ('Straume', 'Bildøyna'): [{'elements': [{'distance': {'text': '1.9 km', 'value': 1927}, 'duration': {'text': '3 mins', 'value': 199}, 'status': 'OK'}]}], ('Straume', 'Spjeld'): [{'elements': [{'distance': {'text': '9.1 km', 'value': 9059}, 'duration': {'text': '10 mins', 'value': 595}, 'status': 'OK'}]}], ('Straume', 'Foldnes'): [{'elements': [{'distance': {'text': '3.2 km', 'value': 3237}, 'duration': {'text': '6 mins', 'value': 348}, 'status': 'OK'}]}], ('Straume', 'Brattholmen'): [{'elements': [{'distance': {'text': '2.3 km', 'value': 2340}, 'duration': {'text': '4 mins', 'value': 248}, 'status': 'OK'}]}], ('Straume', 'Blomøy'): [{'elements': [{'distance': {'text': '29.6 km', 'value': 29578}, 'duration': {'text': '30 mins', 'value': 1790}, 'status': 'OK'}]}], ('Straume', 'Hellesøy'): [{'elements': [{'distance': {'text': '47.5 km', 'value': 47474}, 'duration': {'text': '49 mins', 'value': 2932}, 'status': 'OK'}]}], ('Straume', 'Vågo'): [{'elements': [{'distance': {'text': '497 km', 'value': 497244}, 'duration': {'text': '8 hours 0 mins', 'value': 28825}, 'status': 'OK'}]}], ('Straume', 'Arefjord'): [{'elements': [{'distance': {'text': '2.3 km', 'value': 2297}, 'duration': {'text': '4 mins', 'value': 253}, 'status': 'OK'}]}], ('Straume', 'Ebbesvika'): [{'elements': [{'distance': {'text': '281 km', 'value': 280550}, 'duration': {'text': '4 hours 21 mins', 'value': 15674}, 'status': 'OK'}]}], ('Straume', 'Landro'): [{'elements': [{'distance': {'text': '15.0 km', 'value': 14982}, 'duration': {'text': '18 mins', 'value': 1064}, 'status': 'OK'}]}], ('Straume', 'Hjelteryggen'): [{'elements': [{'distance': {'text': '4.4 km', 'value': 4432}, 'duration': {'text': '7 mins', 'value': 391}, 'status': 'OK'}]}], ('Straume', 'Skogsvåg'): [{'elements': [{'distance': {'text': '16.4 km', 'value': 16413}, 'duration': {'text': '20 mins', 'value': 1211}, 'status': 'OK'}]}], ('Straume', 'Kleppe'): [{'elements': [{'distance': {'text': '239 km', 'value': 238795}, 'duration': {'text': '4 hours 58 mins', 'value': 17868}, 'status': 'OK'}]}], ('Straume', 'Solsvik'): [{'elements': [{'distance': {'text': '17.3 km', 'value': 17301}, 'duration': {'text': '20 mins', 'value': 1174}, 'status': 'OK'}]}], ('Straume', 'Rongøy'): [{'elements': [{'distance': {'text': '25.7 km', 'value': 25677}, 'duration': {'text': '25 mins', 'value': 1482}, 'status': 'OK'}]}], ('Straume', 'Hammersland'): [{'elements': [{'distance': {'text': '281 km', 'value': 280550}, 'duration': {'text': '4 hours 21 mins', 'value': 15674}, 'status': 'OK'}]}], ('Straume', 'Vorland'): [{'elements': [{'distance': {'text': '281 km', 'value': 280550}, 'duration': {'text': '4 hours 21 mins', 'value': 15674}, 'status': 'OK'}]}], ('Straume', 'Tofterøy'): [{'elements': [{'distance': {'text': '25.8 km', 'value': 25791}, 'duration': {'text': '31 mins', 'value': 1882}, 'status': 'OK'}]}], ('Straume', 'Bergenhus'): [{'elements': [{'distance': {'text': '16.8 km', 'value': 16788}, 'duration': {'text': '21 mins', 'value': 1273}, 'status': 'OK'}]}], ('Straume', 'Laksevåg'): [{'elements': [{'distance': {'text': '12.0 km', 'value': 11993}, 'duration': {'text': '14 mins', 'value': 852}, 'status': 'OK'}]}], ('Straume', 'Ytrebygda'): [{'elements': [{'distance': {'text': '17.7 km', 'value': 17708}, 'duration': {'text': '19 mins', 'value': 1153}, 'status': 'OK'}]}], ('Straume', 'Årstad'): [{'elements': [{'distance': {'text': '18.5 km', 'value': 18482}, 'duration': {'text': '21 mins', 'value': 1280}, 'status': 'OK'}]}], ('Knarrevik', 'Knappskog'): [{'elements': [{'distance': {'text': '9.1 km', 'value': 9115}, 'duration': {'text': '9 mins', 'value': 536}, 'status': 'OK'}]}], ('Knarrevik', 'Kolltveit'): [{'elements': [{'distance': {'text': '5.4 km', 'value': 5447}, 'duration': {'text': '6 mins', 'value': 384}, 'status': 'OK'}]}], ('Knarrevik', 'Kårtveit'): [{'elements': [{'distance': {'text': '15.5 km', 'value': 15461}, 'duration': {'text': '16 mins', 'value': 972}, 'status': 'OK'}]}], ('Knarrevik', 'Telavåg'): [{'elements': [{'distance': {'text': '24.7 km', 'value': 24687}, 'duration': {'text': '29 mins', 'value': 1715}, 'status': 'OK'}]}], ('Knarrevik', 'Straume'): [{'elements': [{'distance': {'text': '2.5 km', 'value': 2493}, 'duration': {'text': '3 mins', 'value': 185}, 'status': 'OK'}]}], ('Knarrevik', 'Bildøyna'): [{'elements': [{'distance': {'text': '3.3 km', 'value': 3322}, 'duration': {'text': '4 mins', 'value': 225}, 'status': 'OK'}]}], ('Knarrevik', 'Spjeld'): [{'elements': [{'distance': {'text': '10.5 km', 'value': 10455}, 'duration': {'text': '10 mins', 'value': 621}, 'status': 'OK'}]}], ('Knarrevik', 'Foldnes'): [{'elements': [{'distance': {'text': '4.7 km', 'value': 4693}, 'duration': {'text': '6 mins', 'value': 383}, 'status': 'OK'}]}], ('Knarrevik', 'Brattholmen'): [{'elements': [{'distance': {'text': '2.3 km', 'value': 2301}, 'duration': {'text': '5 mins', 'value': 298}, 'status': 'OK'}]}], ('Knarrevik', 'Blomøy'): [{'elements': [{'distance': {'text': '31.0 km', 'value': 30973}, 'duration': {'text': '30 mins', 'value': 1817}, 'status': 'OK'}]}], ('Knarrevik', 'Hellesøy'): [{'elements': [{'distance': {'text': '48.9 km', 'value': 48870}, 'duration': {'text': '49 mins', 'value': 2958}, 'status': 'OK'}]}], ('Knarrevik', 'Vågo'): [{'elements': [{'distance': {'text': '495 km', 'value': 494682}, 'duration': {'text': '7 hours 57 mins', 'value': 28607}, 'status': 'OK'}]}], ('Knarrevik', 'Arefjord'): [{'elements': [{'distance': {'text': '1.6 km', 'value': 1613}, 'duration': {'text': '3 mins', 'value': 190}, 'status': 'OK'}]}], ('Knarrevik', 'Ebbesvika'): [{'elements': [{'distance': {'text': '278 km', 'value': 277988}, 'duration': {'text': '4 hours 18 mins', 'value': 15456}, 'status': 'OK'}]}], ('Knarrevik', 'Landro'): [{'elements': [{'distance': {'text': '16.4 km', 'value': 16377}, 'duration': {'text': '18 mins', 'value': 1090}, 'status': 'OK'}]}], ('Knarrevik', 'Hjelteryggen'): [{'elements': [{'distance': {'text': '1.9 km', 'value': 1870}, 'duration': {'text': '3 mins', 'value': 174}, 'status': 'OK'}]}], ('Knarrevik', 'Skogsvåg'): [{'elements': [{'distance': {'text': '17.8 km', 'value': 17808}, 'duration': {'text': '21 mins', 'value': 1237}, 'status': 'OK'}]}], ('Knarrevik', 'Kleppe'): [{'elements': [{'distance': {'text': '236 km', 'value': 236233}, 'duration': {'text': '4 hours 54 mins', 'value': 17651}, 'status': 'OK'}]}], ('Knarrevik', 'Solsvik'): [{'elements': [{'distance': {'text': '18.7 km', 'value': 18697}, 'duration': {'text': '20 mins', 'value': 1200}, 'status': 'OK'}]}], ('Knarrevik', 'Rongøy'): [{'elements': [{'distance': {'text': '27.1 km', 'value': 27073}, 'duration': {'text': '25 mins', 'value': 1508}, 'status': 'OK'}]}], ('Knarrevik', 'Hammersland'): [{'elements': [{'distance': {'text': '278 km', 'value': 277988}, 'duration': {'text': '4 hours 18 mins', 'value': 15456}, 'status': 'OK'}]}], ('Knarrevik', 'Vorland'): [{'elements': [{'distance': {'text': '278 km', 'value': 277988}, 'duration': {'text': '4 hours 18 mins', 'value': 15456}, 'status': 'OK'}]}], ('Knarrevik', 'Tofterøy'): [{'elements': [{'distance': {'text': '27.2 km', 'value': 27187}, 'duration': {'text': '32 mins', 'value': 1908}, 'status': 'OK'}]}], ('Knarrevik', 'Bergenhus'): [{'elements': [{'distance': {'text': '14.2 km', 'value': 14226}, 'duration': {'text': '18 mins', 'value': 1056}, 'status': 'OK'}]}], ('Knarrevik', 'Laksevåg'): [{'elements': [{'distance': {'text': '9.4 km', 'value': 9431}, 'duration': {'text': '11 mins', 'value': 635}, 'status': 'OK'}]}], ('Knarrevik', 'Ytrebygda'): [{'elements': [{'distance': {'text': '15.1 km', 'value': 15146}, 'duration': {'text': '16 mins', 'value': 936}, 'status': 'OK'}]}], ('Knarrevik', 'Årstad'): [{'elements': [{'distance': {'text': '15.9 km', 'value': 15920}, 'duration': {'text': '18 mins', 'value': 1062}, 'status': 'OK'}]}], ('Bildøyna', 'Knappskog'): [{'elements': [{'distance': {'text': '6.5 km', 'value': 6495}, 'duration': {'text': '7 mins', 'value': 436}, 'status': 'OK'}]}], ('Bildøyna', 'Kolltveit'): [{'elements': [{'distance': {'text': '2.8 km', 'value': 2827}, 'duration': {'text': '5 mins', 'value': 284}, 'status': 'OK'}]}], ('Bildøyna', 'Kårtveit'): [{'elements': [{'distance': {'text': '12.8 km', 'value': 12841}, 'duration': {'text': '15 mins', 'value': 871}, 'status': 'OK'}]}], ('Bildøyna', 'Telavåg'): [{'elements': [{'distance': {'text': '22.1 km', 'value': 22067}, 'duration': {'text': '27 mins', 'value': 1614}, 'status': 'OK'}]}], ('Bildøyna', 'Straume'): [{'elements': [{'distance': {'text': '1.9 km', 'value': 1931}, 'duration': {'text': '3 mins', 'value': 205}, 'status': 'OK'}]}], ('Bildøyna', 'Knarrevik'): [{'elements': [{'distance': {'text': '3.3 km', 'value': 3289}, 'duration': {'text': '4 mins', 'value': 235}, 'status': 'OK'}]}], ('Bildøyna', 'Spjeld'): [{'elements': [{'distance': {'text': '7.8 km', 'value': 7835}, 'duration': {'text': '9 mins', 'value': 521}, 'status': 'OK'}]}], ('Bildøyna', 'Foldnes'): [{'elements': [{'distance': {'text': '4.5 km', 'value': 4474}, 'duration': {'text': '7 mins', 'value': 443}, 'status': 'OK'}]}], ('Bildøyna', 'Brattholmen'): [{'elements': [{'distance': {'text': '4.8 km', 'value': 4805}, 'duration': {'text': '7 mins', 'value': 400}, 'status': 'OK'}]}], ('Bildøyna', 'Blomøy'): [{'elements': [{'distance': {'text': '28.4 km', 'value': 28353}, 'duration': {'text': '29 mins', 'value': 1716}, 'status': 'OK'}]}], ('Bildøyna', 'Hellesøy'): [{'elements': [{'distance': {'text': '46.2 km', 'value': 46250}, 'duration': {'text': '48 mins', 'value': 2857}, 'status': 'OK'}]}], ('Bildøyna', 'Vågo'): [{'elements': [{'distance': {'text': '498 km', 'value': 497971}, 'duration': {'text': '8 hours 1 min', 'value': 28843}, 'status': 'OK'}]}], ('Bildøyna', 'Arefjord'): [{'elements': [{'distance': {'text': '4.8 km', 'value': 4763}, 'duration': {'text': '7 mins', 'value': 404}, 'status': 'OK'}]}], ('Bildøyna', 'Ebbesvika'): [{'elements': [{'distance': {'text': '281 km', 'value': 281277}, 'duration': {'text': '4 hours 22 mins', 'value': 15692}, 'status': 'OK'}]}], ('Bildøyna', 'Landro'): [{'elements': [{'distance': {'text': '13.8 km', 'value': 13758}, 'duration': {'text': '17 mins', 'value': 990}, 'status': 'OK'}]}], ('Bildøyna', 'Hjelteryggen'): [{'elements': [{'distance': {'text': '5.2 km', 'value': 5159}, 'duration': {'text': '7 mins', 'value': 409}, 'status': 'OK'}]}], ('Bildøyna', 'Skogsvåg'): [{'elements': [{'distance': {'text': '15.2 km', 'value': 15188}, 'duration': {'text': '19 mins', 'value': 1136}, 'status': 'OK'}]}], ('Bildøyna', 'Kleppe'): [{'elements': [{'distance': {'text': '240 km', 'value': 239522}, 'duration': {'text': '4 hours 58 mins', 'value': 17887}, 'status': 'OK'}]}], ('Bildøyna', 'Solsvik'): [{'elements': [{'distance': {'text': '16.1 km', 'value': 16077}, 'duration': {'text': '18 mins', 'value': 1100}, 'status': 'OK'}]}], ('Bildøyna', 'Rongøy'): [{'elements': [{'distance': {'text': '24.5 km', 'value': 24453}, 'duration': {'text': '23 mins', 'value': 1408}, 'status': 'OK'}]}], ('Bildøyna', 'Hammersland'): [{'elements': [{'distance': {'text': '281 km', 'value': 281277}, 'duration': {'text': '4 hours 22 mins', 'value': 15692}, 'status': 'OK'}]}], ('Bildøyna', 'Vorland'): [{'elements': [{'distance': {'text': '281 km', 'value': 281277}, 'duration': {'text': '4 hours 22 mins', 'value': 15692}, 'status': 'OK'}]}], ('Bildøyna', 'Tofterøy'): [{'elements': [{'distance': {'text': '24.6 km', 'value': 24567}, 'duration': {'text': '30 mins', 'value': 1808}, 'status': 'OK'}]}], ('Bildøyna', 'Bergenhus'): [{'elements': [{'distance': {'text': '17.5 km', 'value': 17515}, 'duration': {'text': '22 mins', 'value': 1291}, 'status': 'OK'}]}], ('Bildøyna', 'Laksevåg'): [{'elements': [{'distance': {'text': '12.7 km', 'value': 12720}, 'duration': {'text': '15 mins', 'value': 870}, 'status': 'OK'}]}], ('Bildøyna', 'Ytrebygda'): [{'elements': [{'distance': {'text': '18.4 km', 'value': 18435}, 'duration': {'text': '20 mins', 'value': 1171}, 'status': 'OK'}]}], ('Bildøyna', 'Årstad'): [{'elements': [{'distance': {'text': '19.2 km', 'value': 19209}, 'duration': {'text': '22 mins', 'value': 1298}, 'status': 'OK'}]}], ('Spjeld', 'Knappskog'): [{'elements': [{'distance': {'text': '1.3 km', 'value': 1340}, 'duration': {'text': '1 min', 'value': 87}, 'status': 'OK'}]}], ('Spjeld', 'Kolltveit'): [{'elements': [{'distance': {'text': '5.5 km', 'value': 5469}, 'duration': {'text': '7 mins', 'value': 398}, 'status': 'OK'}]}], ('Spjeld', 'Kårtveit'): [{'elements': [{'distance': {'text': '5.0 km', 'value': 5040}, 'duration': {'text': '6 mins', 'value': 360}, 'status': 'OK'}]}], ('Spjeld', 'Telavåg'): [{'elements': [{'distance': {'text': '24.9 km', 'value': 24913}, 'duration': {'text': '29 mins', 'value': 1754}, 'status': 'OK'}]}], ('Spjeld', 'Straume'): [{'elements': [{'distance': {'text': '9.1 km', 'value': 9122}, 'duration': {'text': '10 mins', 'value': 608}, 'status': 'OK'}]}], ('Spjeld', 'Knarrevik'): [{'elements': [{'distance': {'text': '10.5 km', 'value': 10480}, 'duration': {'text': '11 mins', 'value': 639}, 'status': 'OK'}]}], ('Spjeld', 'Bildøyna'): [{'elements': [{'distance': {'text': '7.6 km', 'value': 7573}, 'duration': {'text': '8 mins', 'value': 496}, 'status': 'OK'}]}], ('Spjeld', 'Foldnes'): [{'elements': [{'distance': {'text': '11.7 km', 'value': 11666}, 'duration': {'text': '14 mins', 'value': 846}, 'status': 'OK'}]}], ('Spjeld', 'Brattholmen'): [{'elements': [{'distance': {'text': '12.0 km', 'value': 11997}, 'duration': {'text': '13 mins', 'value': 803}, 'status': 'OK'}]}], ('Spjeld', 'Blomøy'): [{'elements': [{'distance': {'text': '20.6 km', 'value': 20552}, 'duration': {'text': '20 mins', 'value': 1205}, 'status': 'OK'}]}], ('Spjeld', 'Hellesøy'): [{'elements': [{'distance': {'text': '38.4 km', 'value': 38449}, 'duration': {'text': '39 mins', 'value': 2346}, 'status': 'OK'}]}], ('Spjeld', 'Vågo'): [{'elements': [{'distance': {'text': '505 km', 'value': 505162}, 'duration': {'text': '8 hours 7 mins', 'value': 29246}, 'status': 'OK'}]}], ('Spjeld', 'Arefjord'): [{'elements': [{'distance': {'text': '12.0 km', 'value': 11954}, 'duration': {'text': '13 mins', 'value': 807}, 'status': 'OK'}]}], ('Spjeld', 'Ebbesvika'): [{'elements': [{'distance': {'text': '288 km', 'value': 288468}, 'duration': {'text': '4 hours 28 mins', 'value': 16095}, 'status': 'OK'}]}], ('Spjeld', 'Landro'): [{'elements': [{'distance': {'text': '6.0 km', 'value': 5957}, 'duration': {'text': '8 mins', 'value': 478}, 'status': 'OK'}]}], ('Spjeld', 'Hjelteryggen'): [{'elements': [{'distance': {'text': '12.4 km', 'value': 12350}, 'duration': {'text': '14 mins', 'value': 812}, 'status': 'OK'}]}], ('Spjeld', 'Skogsvåg'): [{'elements': [{'distance': {'text': '18.0 km', 'value': 18034}, 'duration': {'text': '21 mins', '</t>
+  </si>
+  <si>
+    <t>{('Knappskog', 'Kolltveit'): 6, ('Knappskog', 'Kårtveit'): 8, ('Knappskog', 'Telavåg'): 28, ('Knappskog', 'Straume'): 9, ('Knappskog', 'Knarrevik'): 10, ('Knappskog', 'Bildøyna'): 7, ('Knappskog', 'Spjeld'): 2, ('Knappskog', 'Foldnes'): 13, ('Knappskog', 'Brattholmen'): 12, ('Knappskog', 'Blomøy'): 22, ('Knappskog', 'Hellesøy'): 41, ('Knappskog', 'Arefjord'): 12, ('Knappskog', 'Ebbesvik'): 15, ('Knappskog', 'Landro'): 10, ('Knappskog', 'Hjelteryggen'): 13, ('Knappskog', 'Skogsvåg'): 20, ('Knappskog', 'Kleppestø'): 21, ('Knappskog', 'Solsvik'): 12, ('Knappskog', 'Rongøy'): 17, ('Knappskog', 'Hammarsland'): 19, ('Knappskog', 'Træsneset'): 23, ('Knappskog', 'Tofterøy'): 31, ('Knappskog', 'Bergenhus'): 27, ('Knappskog', 'Laksevåg'): 20, ('Knappskog', 'Ytrebygda'): 25, ('Knappskog', 'Årstad'): 27, ('Kolltveit', 'Knappskog'): 6, ('Kolltveit', 'Kårtveit'): 13, ('Kolltveit', 'Telavåg'): 26, ('Kolltveit', 'Straume'): 7, ('Kolltveit', 'Knarrevik'): 7, ('Kolltveit', 'Bildøyna'): 5, ('Kolltveit', 'Spjeld'): 7, ('Kolltveit', 'Foldnes'): 11, ('Kolltveit', 'Brattholmen'): 10, ('Kolltveit', 'Blomøy'): 27, ('Kolltveit', 'Hellesøy'): 46, ('Kolltveit', 'Arefjord'): 10, ('Kolltveit', 'Ebbesvik'): 13, ('Kolltveit', 'Landro'): 15, ('Kolltveit', 'Hjelteryggen'): 10, ('Kolltveit', 'Skogsvåg'): 18, ('Kolltveit', 'Kleppestø'): 18, ('Kolltveit', 'Solsvik'): 17, ('Kolltveit', 'Rongøy'): 22, ('Kolltveit', 'Hammarsland'): 16, ('Kolltveit', 'Træsneset'): 21, ('Kolltveit', 'Tofterøy'): 29, ('Kolltveit', 'Bergenhus'): 25, ('Kolltveit', 'Laksevåg'): 18, ('Kolltveit', 'Ytrebygda'): 23, ('Kolltveit', 'Årstad'): 25, ('Kårtveit', 'Knappskog'): 8, ('Kårtveit', 'Kolltveit'): 13, ('Kårtveit', 'Telavåg'): 36, ('Kårtveit', 'Straume'): 17, ('Kårtveit', 'Knarrevik'): 17, ('Kårtveit', 'Bildøyna'): 15, ('Kårtveit', 'Spjeld'): 7, ('Kårtveit', 'Foldnes'): 21, ('Kårtveit', 'Brattholmen'): 20, ('Kårtveit', 'Blomøy'): 20, ('Kårtveit', 'Hellesøy'): 39, ('Kårtveit', 'Arefjord'): 20, ('Kårtveit', 'Ebbesvik'): 23, ('Kårtveit', 'Landro'): 7, ('Kårtveit', 'Hjelteryggen'): 20, ('Kårtveit', 'Skogsvåg'): 28, ('Kårtveit', 'Kleppestø'): 29, ('Kårtveit', 'Solsvik'): 10, ('Kårtveit', 'Rongøy'): 15, ('Kårtveit', 'Hammarsland'): 26, ('Kårtveit', 'Træsneset'): 31, ('Kårtveit', 'Tofterøy'): 39, ('Kårtveit', 'Bergenhus'): 35, ('Kårtveit', 'Laksevåg'): 28, ('Kårtveit', 'Ytrebygda'): 33, ('Kårtveit', 'Årstad'): 35, ('Telavåg', 'Knappskog'): 28, ('Telavåg', 'Kolltveit'): 26, ('Telavåg', 'Kårtveit'): 35, ('Telavåg', 'Straume'): 29, ('Telavåg', 'Knarrevik'): 29, ('Telavåg', 'Bildøyna'): 27, ('Telavåg', 'Spjeld'): 30, ('Telavåg', 'Foldnes'): 33, ('Telavåg', 'Brattholmen'): 32, ('Telavåg', 'Blomøy'): 50, ('Telavåg', 'Hellesøy'): 69, ('Telavåg', 'Arefjord'): 32, ('Telavåg', 'Ebbesvik'): 35, ('Telavåg', 'Landro'): 37, ('Telavåg', 'Hjelteryggen'): 32, ('Telavåg', 'Skogsvåg'): 14, ('Telavåg', 'Kleppestø'): 40, ('Telavåg', 'Solsvik'): 39, ('Telavåg', 'Rongøy'): 44, ('Telavåg', 'Hammarsland'): 10, ('Telavåg', 'Træsneset'): 10, ('Telavåg', 'Tofterøy'): 19, ('Telavåg', 'Bergenhus'): 47, ('Telavåg', 'Laksevåg'): 40, ('Telavåg', 'Ytrebygda'): 45, ('Telavåg', 'Årstad'): 47, ('Straume', 'Knappskog'): 9, ('Straume', 'Kolltveit'): 7, ('Straume', 'Kårtveit'): 16, ('Straume', 'Telavåg'): 29, ('Straume', 'Knarrevik'): 4, ('Straume', 'Bildøyna'): 4, ('Straume', 'Spjeld'): 10, ('Straume', 'Foldnes'): 6, ('Straume', 'Brattholmen'): 5, ('Straume', 'Blomøy'): 30, ('Straume', 'Hellesøy'): 49, ('Straume', 'Straume'): 0, ('Straume', 'Arefjord'): 5, ('Straume', 'Ebbesvik'): 7, ('Straume', 'Landro'): 18, ('Straume', 'Hjelteryggen'): 7, ('Straume', 'Skogsvåg'): 21, ('Straume', 'Kleppestø'): 15, ('Straume', 'Solsvik'): 20, ('Straume', 'Rongøy'): 25, ('Straume', 'Hammarsland'): 19, ('Straume', 'Træsneset'): 24, ('Straume', 'Tofterøy'): 32, ('Straume', 'Bergenhus'): 22, ('Straume', 'Laksevåg'): 15, ('Straume', 'Ytrebygda'): 20, ('Straume', 'Årstad'): 22, ('Knarrevik', 'Knappskog'): 9, ('Knarrevik', 'Kolltveit'): 7, ('Knarrevik', 'Kårtveit'): 17, ('Knarrevik', 'Telavåg'): 29, ('Knarrevik', 'Straume'): 4, ('Knarrevik', 'Bildøyna'): 4, ('Knarrevik', 'Spjeld'): 11, ('Knarrevik', 'Foldnes'): 7, ('Knarrevik', 'Brattholmen'): 5, ('Knarrevik', 'Blomøy'): 31, ('Knarrevik', 'Hellesøy'): 50, ('Knarrevik', 'Arefjord'): 4, ('Knarrevik', 'Ebbesvik'): 9, ('Knarrevik', 'Landro'): 19, ('Knarrevik', 'Hjelteryggen'): 3, ('Knarrevik', 'Skogsvåg'): 21, ('Knarrevik', 'Kleppestø'): 12, ('Knarrevik', 'Solsvik'): 20, ('Knarrevik', 'Rongøy'): 26, ('Knarrevik', 'Hammarsland'): 19, ('Knarrevik', 'Træsneset'): 24, ('Knarrevik', 'Tofterøy'): 32, ('Knarrevik', 'Bergenhus'): 18, ('Knarrevik', 'Laksevåg'): 11, ('Knarrevik', 'Ytrebygda'): 16, ('Knarrevik', 'Årstad'): 18, ('Bildøyna', 'Knappskog'): 8, ('Bildøyna', 'Kolltveit'): 5, ('Bildøyna', 'Kårtveit'): 15, ('Bildøyna', 'Telavåg'): 27, ('Bildøyna', 'Straume'): 4, ('Bildøyna', 'Knarrevik'): 4, ('Bildøyna', 'Spjeld'): 9, ('Bildøyna', 'Foldnes'): 8, ('Bildøyna', 'Brattholmen'): 7, ('Bildøyna', 'Blomøy'): 29, ('Bildøyna', 'Hellesøy'): 48, ('Bildøyna', 'Arefjord'): 7, ('Bildøyna', 'Ebbesvik'): 10, ('Bildøyna', 'Landro'): 17, ('Bildøyna', 'Hjelteryggen'): 7, ('Bildøyna', 'Skogsvåg'): 19, ('Bildøyna', 'Kleppestø'): 16, ('Bildøyna', 'Solsvik'): 19, ('Bildøyna', 'Rongøy'): 24, ('Bildøyna', 'Hammarsland'): 18, ('Bildøyna', 'Træsneset'): 22, ('Bildøyna', 'Tofterøy'): 31, ('Bildøyna', 'Bergenhus'): 22, ('Bildøyna', 'Laksevåg'): 15, ('Bildøyna', 'Ytrebygda'): 20, ('Bildøyna', 'Årstad'): 22, ('Spjeld', 'Knappskog'): 2, ('Spjeld', 'Kolltveit'): 7, ('Spjeld', 'Kårtveit'): 6, ('Spjeld', 'Telavåg'): 30, ('Spjeld', 'Straume'): 11, ('Spjeld', 'Knarrevik'): 11, ('Spjeld', 'Bildøyna'): 9, ('Spjeld', 'Foldnes'): 15, ('Spjeld', 'Brattholmen'): 14, ('Spjeld', 'Blomøy'): 21, ('Spjeld', 'Hellesøy'): 40, ('Spjeld', 'Arefjord'): 14, ('Spjeld', 'Ebbesvik'): 17, ('Spjeld', 'Landro'): 8, ('Spjeld', 'Hjelteryggen'): 14, ('Spjeld', 'Skogsvåg'): 22, ('Spjeld', 'Kleppestø'): 22, ('Spjeld', 'Solsvik'): 10, ('Spjeld', 'Rongøy'): 15, ('Spjeld', 'Hammarsland'): 20, ('Spjeld', 'Træsneset'): 25, ('Spjeld', 'Tofterøy'): 33, ('Spjeld', 'Bergenhus'): 29, ('Spjeld', 'Laksevåg'): 22, ('Spjeld', 'Ytrebygda'): 27, ('Spjeld', 'Årstad'): 29, ('Foldnes', 'Knappskog'): 12, ('Foldnes', 'Kolltveit'): 10, ('Foldnes', 'Kårtveit'): 20, ('Foldnes', 'Telavåg'): 32, ('Foldnes', 'Straume'): 6, ('Foldnes', 'Knarrevik'): 8, ('Foldnes', 'Bildøyna'): 7, ('Foldnes', 'Spjeld'): 14, ('Foldnes', 'Brattholmen'): 10, ('Foldnes', 'Blomøy'): 34, ('Foldnes', 'Hellesøy'): 53, ('Foldnes', 'Arefjord'): 10, ('Foldnes', 'Ebbesvik'): 13, ('Foldnes', 'Landro'): 21, ('Foldnes', 'Hjelteryggen'): 11, ('Foldnes', 'Skogsvåg'): 24, ('Foldnes', 'Kleppestø'): 19, ('Foldnes', 'Solsvik'): 23, ('Foldnes', 'Rongøy'): 28, ('Foldnes', 'Hammarsland'): 22, ('Foldnes', 'Træsneset'): 27, ('Foldnes', 'Tofterøy'): 35, ('Foldnes', 'Bergenhus'): 26, ('Foldnes', 'Laksevåg'): 19, ('Foldnes', 'Ytrebygda'): 24, ('Foldnes', 'Årstad'): 26, ('Brattholmen', 'Knappskog'): 13, ('Brattholmen', 'Kolltveit'): 11, ('Brattholmen', 'Kårtveit'): 20, ('Brattholmen', 'Telavåg'): 33, ('Brattholmen', 'Straume'): 5, ('Brattholmen', 'Knarrevik'): 6, ('Brattholmen', 'Bildøyna'): 8, ('Brattholmen', 'Spjeld'): 14, ('Brattholmen', 'Foldnes'): 10, ('Brattholmen', 'Blomøy'): 34, ('Brattholmen', 'Hellesøy'): 53, ('Brattholmen', 'Arefjord'): 4, ('Brattholmen', 'Ebbesvik'): 5, ('Brattholmen', 'Landro'): 22, ('Brattholmen', 'Hjelteryggen'): 9, ('Brattholmen', 'Skogsvåg'): 25, ('Brattholmen', 'Kleppestø'): 17, ('Brattholmen', 'Solsvik'): 24, ('Brattholmen', 'Rongøy'): 29, ('Brattholmen', 'Hammarsland'): 23, ('Brattholmen', 'Træsneset'): 28, ('Brattholmen', 'Tofterøy'): 36, ('Brattholmen', 'Bergenhus'): 23, ('Brattholmen', 'Laksevåg'): 16, ('Brattholmen', 'Ytrebygda'): 21, ('Brattholmen', 'Årstad'): 23, ('Blomøy', 'Knappskog'): 23, ('Blomøy', 'Kolltveit'): 28, ('Blomøy', 'Kårtveit'): 21, ('Blomøy', 'Telavåg'): 51, ('Blomøy', 'Straume'): 32, ('Blomøy', 'Knarrevik'): 32, ('Blomøy', 'Bildøyna'): 30, ('Blomøy', 'Spjeld'): 22, ('Blomøy', 'Foldnes'): 36, ('Blomøy', 'Brattholmen'): 35, ('Blomøy', 'Hellesøy'): 23, ('Blomøy', 'Arefjord'): 35, ('Blomøy', 'Ebbesvik'): 38, ('Blomøy', 'Landro'): 20, ('Blomøy', 'Hjelteryggen'): 35, ('Blomøy', 'Skogsvåg'): 43, ('Blomøy', 'Kleppestø'): 43, ('Blomøy', 'Solsvik'): 18, ('Blomøy', 'Rongøy'): 7, ('Blomøy', 'Hammarsland'): 41, ('Blomøy', 'Træsneset'): 46, ('Blomøy', 'Tofterøy'): 54, ('Blomøy', 'Bergenhus'): 50, ('Blomøy', 'Laksevåg'): 43, ('Blomøy', 'Ytrebygda'): 48, ('Blomøy', 'Årstad'): 50, ('Hellesøy', 'Knappskog'): 41, ('Hellesøy', 'Kolltveit'): 46, ('Hellesøy', 'Kårtveit'): 39, ('Hellesøy', 'Telavåg'): 69, ('Hellesøy', 'Straume'): 50, ('Hellesøy', 'Knarrevik'): 50, ('Hellesøy', 'Bildøyna'): 48, ('Hellesøy', 'Spjeld'): 40, ('Hellesøy', 'Foldnes'): 54, ('Hellesøy', 'Brattholmen'): 53, ('Hellesøy', 'Blomøy'): 24, ('Hellesøy', 'Arefjord'): 53, ('Hellesøy', 'Ebbesvik'): 56, ('Hellesøy', 'Landro'): 38, ('Hellesøy', 'Hjelteryggen'): 53, ('Hellesøy', 'Skogsvåg'): 61, ('Hellesøy', 'Kleppestø'): 61, ('Hellesøy', 'Solsvik'): 36, ('Hellesøy', 'Rongøy'): 25, ('Hellesøy', 'Hammarsland'): 59, ('Hellesøy', 'Træsneset'): 64, ('Hellesøy', 'Tofterøy'): 72, ('Hellesøy', 'Bergenhus'): 68, ('Hellesøy', 'Laksevåg'): 61, ('Hellesøy', 'Ytrebygda'): 66, ('Hellesøy', 'Årstad'): 68, ('Arefjord', 'Knappskog'): 13, ('Arefjord', 'Kolltveit'): 11, ('Arefjord', 'Kårtveit'): 20, ('Arefjord', 'Telavåg'): 33, ('Arefjord', 'Straume'): 5, ('Arefjord', 'Knarrevik'): 4, ('Arefjord', 'Bildøyna'): 8, ('Arefjord', 'Spjeld'): 15, ('Arefjord', 'Foldnes'): 10, ('Arefjord', 'Brattholmen'): 4, ('Arefjord', 'Blomøy'): 34, ('Arefjord', 'Hellesøy'): 53, ('Arefjord', 'Ebbesvik'): 7, ('Arefjord', 'Landro'): 22, ('Arefjord', 'Hjelteryggen'): 7, ('Arefjord', 'Skogsvåg'): 25, ('Arefjord', 'Kleppestø'): 16, ('Arefjord', 'Solsvik'): 24, ('Arefjord', 'Rongøy'): 29, ('Arefjord', 'Hammarsland'): 23, ('Arefjord', 'Træsneset'): 28, ('Arefjord', 'Tofterøy'): 36, ('Arefjord', 'Bergenhus'): 22, ('Arefjord', 'Laksevåg'): 15, ('Arefjord', 'Ytrebygda'): 20, ('Arefjord', 'Årstad'): 22, ('Ebbesvik', 'Knappskog'): 16, ('Ebbesvik', 'Kolltveit'): 14, ('Ebbesvik', 'Kårtveit'): 23, ('Ebbesvik', 'Telavåg'): 35, ('Ebbesvik', 'Straume'): 7, ('Ebbesvik', 'Knarrevik'): 8, ('Ebbesvik', 'Bildøyna'): 10, ('Ebbesvik', 'Spjeld'): 17, ('Ebbesvik', 'Foldnes'): 13, ('Ebbesvik', 'Brattholmen'): 5, ('Ebbesvik', 'Blomøy'): 37, ('Ebbesvik', 'Hellesøy'): 56, ('Ebbesvik', 'Arefjord'): 7, ('Ebbesvik', 'Landro'): 25, ('Ebbesvik', 'Hjelteryggen'): 11, ('Ebbesvik', 'Skogsvåg'): 27, ('Ebbesvik', 'Kleppestø'): 19, ('Ebbesvik', 'Solsvik'): 27, ('Ebbesvik', 'Rongøy'): 32, ('Ebbesvik', 'Hammarsland'): 25, ('Ebbesvik', 'Træsneset'): 30, ('Ebbesvik', 'Tofterøy'): 38, ('Ebbesvik', 'Bergenhus'): 26, ('Ebbesvik', 'Laksevåg'): 19, ('Ebbesvik', 'Ytrebygda'): 24, ('Ebbesvik', 'Årstad'): 26, ('Landro', 'Knappskog'): 10, ('Landro', 'Kolltveit'): 15, ('Landro', 'Kårtveit'): 7, ('Landro', 'Telavåg'): 37, ('Landro', 'Straume'): 18, ('Landro', 'Knarrevik'): 19, ('Landro', 'Bildøyna'): 16, ('Landro', 'Spjeld'): 8, ('Landro', 'Foldnes'): 22, ('Landro', 'Brattholmen'): 22, ('Landro', 'Blomøy'): 19, ('Landro', 'Hellesøy'): 38, ('Landro', 'Arefjord'): 22, ('Landro', 'Ebbesvik'): 24, ('Landro', 'Hjelteryggen'): 22, ('Landro', 'Skogsvåg'): 29, ('Landro', 'Kleppestø'): 30, ('Landro', 'Solsvik'): 3, ('Landro', 'Rongøy'): 13, ('Landro', 'Hammarsland'): 28, ('Landro', 'Træsneset'): 32, ('Landro', 'Tofterøy'): 41, ('Landro', 'Bergenhus'): 36, ('Landro', 'Laksevåg'): 29, ('Landro', 'Ytrebygda'): 34, ('Landro', 'Årstad'): 37, ('Hjelteryggen', 'Knappskog'): 13, ('Hjelteryggen', 'Kolltveit'): 10, ('Hjelteryggen', 'Kårtveit'): 20, ('Hjelteryggen', 'Telavåg'): 32, ('Hjelteryggen', 'Straume'): 7, ('Hjelteryggen', 'Knarrevik'): 4, ('Hjelteryggen', 'Bildøyna'): 7, ('Hjelteryggen', 'Spjeld'): 14, ('Hjelteryggen', 'Foldnes'): 10, ('Hjelteryggen', 'Brattholmen'): 9, ('Hjelteryggen', 'Blomøy'): 34, ('Hjelteryggen', 'Hellesøy'): 53, ('Hjelteryggen', 'Arefjord'): 7, ('Hjelteryggen', 'Ebbesvik'): 12, ('Hjelteryggen', 'Landro'): 22, ('Hjelteryggen', 'Skogsvåg'): 24, ('Hjelteryggen', 'Kleppestø'): 14, ('Hjelteryggen', 'Solsvik'): 24, ('Hjelteryggen', 'Rongøy'): 29, ('Hjelteryggen', 'Hammarsland'): 23, ('Hjelteryggen', 'Træsneset'): 27, ('Hjelteryggen', 'Tofterøy'): 36, ('Hjelteryggen', 'Bergenhus'): 21, ('Hjelteryggen', 'Laksevåg'): 14, ('Hjelteryggen', 'Ytrebygda'): 19, ('Hjelteryggen', 'Årstad'): 21, ('Skogsvåg', 'Knappskog'): 20, ('Skogsvåg', 'Kolltveit'): 18, ('Skogsvåg', 'Kårtveit'): 28, ('Skogsvåg', 'Telavåg'): 15, ('Skogsvåg', 'Straume'): 21, ('Skogsvåg', 'Knarrevik'): 21, ('Skogsvåg', 'Bildøyna'): 19, ('Skogsvåg', 'Spjeld'): 22, ('Skogsvåg', 'Foldnes'): 25, ('Skogsvåg', 'Brattholmen'): 24, ('Skogsvåg', 'Blomøy'): 42, ('Skogsvåg', 'Hellesøy'): 61, ('Skogsvåg', 'Arefjord'): 24, ('Skogsvåg', 'Ebbesvik'): 27, ('Skogsvåg', 'Landro'): 29, ('Skogsvåg', 'Hjelteryggen'): 24, ('Skogsvåg', 'Kleppestø'): 32, ('Skogsvåg', 'Solsvik'): 31, ('Skogsvåg', 'Rongøy'): 36, ('Skogsvåg', 'Hammarsland'): 5, ('Skogsvåg', 'Træsneset'): 10, ('Skogsvåg', 'Tofterøy'): 18, ('Skogsvåg', 'Bergenhus'): 39, ('Skogsvåg', 'Laksevåg'): 32, ('Skogsvåg', 'Ytrebygda'): 37, ('Skogsvåg', 'Årstad'): 39, ('Kleppestø', 'Knappskog'): 21, ('Kleppestø', 'Kolltveit'): 18, ('Kleppestø', 'Kårtveit'): 28, ('Kleppestø', 'Telavåg'): 40, ('Kleppestø', 'Straume'): 15, ('Kleppestø', 'Knarrevik'): 12, ('Kleppestø', 'Bildøyna'): 15, ('Kleppestø', 'Spjeld'): 22, ('Kleppestø', 'Foldnes'): 18, ('Kleppestø', 'Brattholmen'): 17, ('Kleppestø', 'Blomøy'): 42, ('Kleppestø', 'Hellesøy'): 61, ('Kleppestø', 'Arefjord'): 15, ('Kleppestø', 'Ebbesvik'): 20, ('Kleppestø', 'Landro'): 30, ('Kleppestø', 'Hjelteryggen'): 14, ('Kleppestø', 'Skogsvåg'): 32, ('Kleppestø', 'Solsvik'): 32, ('Kleppestø', 'Rongøy'): 37, ('Kleppestø', 'Hammarsland'): 31, ('Kleppestø', 'Træsneset'): 35, ('Kleppestø', 'Tofterøy'): 44, ('Kleppestø', 'Bergenhus'): 22, ('Kleppestø', 'Laksevåg'): 15, ('Kleppestø', 'Ytrebygda'): 20, ('Kleppestø', 'Årstad'): 22, ('Solsvik', 'Knappskog'): 12, ('Solsvik', 'Kolltveit'): 17, ('Solsvik', 'Kårtveit'): 9, ('Solsvik', 'Telavåg'): 39, ('Solsvik', 'Straume'): 20, ('Solsvik', 'Knarrevik'): 21, ('Solsvik', 'Bildøyna'): 18, ('Solsvik', 'Spjeld'): 10, ('Solsvik', 'Foldnes'): 24, ('Solsvik', 'Brattholmen'): 23, ('Solsvik', 'Blomøy'): 16, ('Solsvik', 'Hellesøy'): 35, ('Solsvik', 'Arefjord'): 24, ('Solsvik', 'Ebbesvik'): 26, ('Solsvik', 'Landro'): 4, ('Solsvik', 'Hjelteryggen'): 24, ('Solsvik', 'Skogsvåg'): 31, ('Solsvik', 'Kleppestø'): 32, ('Solsvik', 'Rongøy'): 11, ('Solsvik', 'Hammarsland'): 30, ('Solsvik', 'Træsneset'): 34, ('Solsvik', 'Tofterøy'): 43, ('Solsvik', 'Bergenhus'): 38, ('Solsvik', 'Laksevåg'): 31, ('Solsvik', 'Ytrebygda'): 36, ('Solsvik', 'Årstad'): 38, ('Rongøy', 'Knappskog'): 17, ('Rongøy', 'Kolltveit'): 22, ('Rongøy', 'Kårtveit'): 15, ('Rongøy', 'Telavåg'): 45, ('Rongøy', 'Straume'): 25, ('Rongøy', 'Knarrevik'): 26, ('Rongøy', 'Bildøyna'): 24, ('Rongøy', 'Spjeld'): 15, ('Rongøy', 'Foldnes'): 29, ('Rongøy', 'Brattholmen'): 29, ('Rongøy', 'Blomøy'): 6, ('Rongøy', 'Hellesøy'): 25, ('Rongøy', 'Arefjord'): 29, ('Rongøy', 'Ebbesvik'): 31, ('Rongøy', 'Landro'): 14, ('Rongøy', 'Hjelteryggen'): 29, ('Rongøy', 'Skogsvåg'): 37, ('Rongøy', 'Kleppestø'): 37, ('Rongøy', 'Solsvik'): 11, ('Rongøy', 'Hammarsland'): 35, ('Rongøy', 'Træsneset'): 40, ('Rongøy', 'Tofterøy'): 48, ('Rongøy', 'Bergenhus'): 44, ('Rongøy', 'Laksevåg'): 37, ('Rongøy', 'Ytrebygda'): 42, ('Rongøy', 'Årstad'): 44, ('Hammarsland', 'Knappskog'): 19, ('Hammarsland', 'Kolltveit'): 16, ('Hammarsland', 'Kårtveit'): 26, ('Hammarsland', 'Telavåg'): 10, ('Hammarsland', 'Straume'): 19, ('Hammarsland', 'Knarrevik'): 19, ('Hammarsland', 'Bildøyna'): 17, ('Hammarsland', 'Spjeld'): 20, ('Hammarsland', 'Foldnes'): 23, ('Hammarsland', 'Brattholmen'): 22, ('Hammarsland', 'Blomøy'): 40, ('Hammarsland', 'Hellesøy'): 59, ('Hammarsland', 'Arefjord'): 22, ('Hammarsland', 'Ebbesvik'): 25, ('Hammarsland', 'Landro'): 28, ('Hammarsland', 'Hjelteryggen'): 22, ('Hammarsland', 'Skogsvåg'): 5, ('Hammarsland', 'Kleppestø'): 31, ('Hammarsland', 'Solsvik'): 30, ('Hammarsland', 'Rongøy'): 35, ('Hammarsland', 'Træsneset'): 5, ('Hammarsland', 'Tofterøy'): 14, ('Hammarsland', 'Bergenhus'): 37, ('Hammarsland', 'Laksevåg'): 30, ('Hammarsland', 'Ytrebygda'): 35, ('Hammarsland', 'Årstad'): 37, ('Træsneset', 'Knappskog'): 24, ('Træsneset', 'Kolltveit'): 22, ('Træsneset', 'Kårtveit'): 32, ('Træsneset', 'Telavåg'): 12, ('Træsneset', 'Straume'): 25, ('Træsneset', 'Knarrevik'): 25, ('Træsneset', 'Bildøyna'): 23, ('Træsneset', 'Spjeld'): 26, ('Træsneset', 'Foldnes'): 29, ('Træsneset', 'Brattholmen'): 28, ('Træsneset', 'Blomøy'): 46, ('Træsneset', 'Hellesøy'): 65, ('Træsneset', 'Arefjord'): 28, ('Træsneset', 'Ebbesvik'): 31, ('Træsneset', 'Landro'): 34, ('Træsneset', 'Hjelteryggen'): 28, ('Træsneset', 'Skogsvåg'): 11, ('Træsneset', 'Kleppestø'): 37, ('Træsneset', 'Solsvik'): 36, ('Træsneset', 'Rongøy'): 41, ('Træsneset', 'Hammarsland'): 7, ('Træsneset', 'Tofterøy'): 10, ('Træsneset', 'Bergenhus'): 43, ('Træsneset', 'Laksevåg'): 36, ('Træsneset', 'Ytrebygda'): 41, ('Træsneset', 'Årstad'): 43, ('Tofterøy', 'Knappskog'): 31, ('Tofterøy', 'Kolltveit'): 29, ('Tofterøy', 'Kårtveit'): 39, ('Tofterøy', 'Telavåg'): 19, ('Tofterøy', 'Straume'): 32, ('Tofterøy', 'Knarrevik'): 32, ('Tofterøy', 'Bildøyna'): 30, ('Tofterøy', 'Spjeld'): 33, ('Tofterøy', 'Foldnes'): 36, ('Tofterøy', 'Brattholmen'): 35, ('Tofterøy', 'Blomøy'): 53, ('Tofterøy', 'Hellesøy'): 72, ('Tofterøy', 'Arefjord'): 35, ('Tofterøy', 'Ebbesvik'): 38, ('Tofterøy', 'Landro'): 41, ('Tofterøy', 'Hjelteryggen'): 35, ('Tofterøy', 'Skogsvåg'): 18, ('Tofterøy', 'Kleppestø'): 44, ('Tofterøy', 'Solsvik'): 42, ('Tofterøy', 'Rongøy'): 48, ('Tofterøy', 'Hammarsland'): 14, ('Tofterøy', 'Træsneset'): 10, ('Tofterøy', 'Bergenhus'): 50, ('Tofterøy', 'Laksevåg'): 43, ('Tofterøy', 'Ytrebygda'): 48, ('Tofterøy', 'Årstad'): 50, ('Bergenhus', 'Laksevåg'): 14, ('Bergenhus', 'Ytrebygda'): 21, ('Bergenhus', 'Årstad'): 15, ('Laksevåg', 'Bergenhus'): 15, ('Laksevåg', 'Ytrebygda'): 14, ('Laksevåg', 'Årstad'): 15, ('Ytrebygda', 'Bergenhus'): 23, ('Ytrebygda', 'Laksevåg'): 16, ('Ytrebygda', 'Årstad'): 17, ('Årstad', 'Bergenhus'): 13, ('Årstad', 'Laksevåg'): 15, ('Årstad', 'Ytrebygda'): 16}</t>
   </si>
 </sst>
 </file>
@@ -77,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,17 +401,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CFF4A7-653C-483C-A1B6-AFADE4E4A685}">
-  <dimension ref="B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="82.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
